--- a/part2/all_stats/berkeley_analysis.xlsx
+++ b/part2/all_stats/berkeley_analysis.xlsx
@@ -5,11 +5,15 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="stats" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="graph" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">stats!$A$1:$N$331</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -20,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2034" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2144" uniqueCount="238">
   <si>
     <t xml:space="preserve">Connection</t>
   </si>
@@ -115,42 +119,42 @@
     <t xml:space="preserve">4.15%</t>
   </si>
   <si>
+    <t xml:space="preserve">1.79%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1280-2559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.69%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2560-5119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.51%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5120 and greater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.91%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.08%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.48%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.63%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.01%</t>
+  </si>
+  <si>
     <t xml:space="preserve">640-1279</t>
   </si>
   <si>
-    <t xml:space="preserve">1.79%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1280-2559</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.69%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2560-5119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6.51%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5120 and greater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.91%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.08%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.48%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.63%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.01%</t>
-  </si>
-  <si>
     <t xml:space="preserve">1.54%</t>
   </si>
   <si>
@@ -716,21 +720,42 @@
   </si>
   <si>
     <t xml:space="preserve">9.04%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRO Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRO Avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VPN Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VPN Avg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOR Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOR Avg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
+    <numFmt numFmtId="166" formatCode="0.00%"/>
+    <numFmt numFmtId="167" formatCode="0"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -770,10 +795,19 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -824,7 +858,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -841,15 +875,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -878,7 +916,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -898,22 +936,22 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFC2E0AE"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFDAA2"/>
       <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF63BBEE"/>
       <rgbColor rgb="FF99CC00"/>
       <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFFF420E"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FFBD7CB5"/>
       <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF65C295"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -925,6 +963,986 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Packets Sent Count</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graph!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BRO Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="c2e0ae"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>graph!$P$2:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1229</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>649</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1028</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>934</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>966</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1032</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1035</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1042</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graph!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VPN Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ff420e"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>graph!$R$2:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3035</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2944</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2851</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2776</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2878</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2835</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2756</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2829</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2854</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2829</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graph!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOR Count</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="bd7cb5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="bd7cb5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>graph!$T$2:$T$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2111</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2158</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2272</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2075</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2147</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2068</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="30076955"/>
+        <c:axId val="70470587"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="30076955"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Run Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70470587"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="70470587"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Packets Sent Count</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="30076955"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Average Packet Length</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graph!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BRO Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffdaa2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffdaa2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="0" sourceLinked="1"/>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>graph!$Q$2:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2227.26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1530.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2638.03</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2576.74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2587.93</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2831.99</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2742.85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2587.52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2568.08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2546.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graph!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VPN Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="65c295"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0" sourceLinked="1"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>graph!$S$2:$S$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1036.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1042.28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1072.37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1098.26</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1064.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1076.91</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1105.34</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1080.71</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1071.43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1079.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>graph!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TOR Avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="63bbee"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="0" sourceLinked="1"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>graph!$U$2:$U$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1648.15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1652.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1663.72</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1640.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1549</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1478.69</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1199.29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1617.86</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1542.18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1614.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:gapWidth val="100"/>
+        <c:overlap val="0"/>
+        <c:axId val="65882013"/>
+        <c:axId val="72194543"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="65882013"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Run Number</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="72194543"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="72194543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Average Packet Length</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65882013"/>
+        <c:crosses val="autoZero"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+              <a:latin typeface="Arial"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>466200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>153000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>535320</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>143280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="11845080" y="1941120"/>
+        <a:ext cx="5758920" cy="3241440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>327240</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>76680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>396360</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>66960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="11706120" y="5441040"/>
+        <a:ext cx="5758920" cy="3241440"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -932,14 +1950,14 @@
   </sheetPr>
   <dimension ref="A1:N331"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A307" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B333" activeCellId="0" sqref="B333"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="5.96"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="11.52"/>
   </cols>
@@ -988,7 +2006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -998,34 +2016,34 @@
       <c r="C2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="D2" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="3" t="n">
         <v>1229</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="3" t="n">
         <v>2227.26</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="3" t="n">
         <v>65376</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="3" t="n">
         <v>0.2023</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="3" t="n">
         <v>0.91</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2" s="3" t="n">
         <v>3.701</v>
       </c>
     </row>
@@ -1063,7 +2081,7 @@
       <c r="K3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M3" s="0" t="s">
@@ -1107,7 +2125,7 @@
       <c r="K4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M4" s="0" t="s">
@@ -1151,7 +2169,7 @@
       <c r="K5" s="0" t="n">
         <v>0.1071</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="M5" s="0" t="n">
@@ -1195,7 +2213,7 @@
       <c r="K6" s="0" t="n">
         <v>0.0221</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="6" t="s">
         <v>26</v>
       </c>
       <c r="M6" s="0" t="n">
@@ -1239,7 +2257,7 @@
       <c r="K7" s="0" t="n">
         <v>0.0143</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="6" t="s">
         <v>28</v>
       </c>
       <c r="M7" s="0" t="n">
@@ -1283,7 +2301,7 @@
       <c r="K8" s="0" t="n">
         <v>0.0084</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="L8" s="6" t="s">
         <v>30</v>
       </c>
       <c r="M8" s="0" t="n">
@@ -1310,7 +2328,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>22</v>
@@ -1327,8 +2345,8 @@
       <c r="K9" s="0" t="n">
         <v>0.0036</v>
       </c>
-      <c r="L9" s="4" t="s">
-        <v>32</v>
+      <c r="L9" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>0.04</v>
@@ -1354,7 +2372,7 @@
         <v>18</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>33</v>
@@ -1371,8 +2389,8 @@
       <c r="K10" s="0" t="n">
         <v>0.0054</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>34</v>
+      <c r="L10" s="6" t="s">
+        <v>33</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>0.05</v>
@@ -1398,7 +2416,7 @@
         <v>18</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>80</v>
@@ -1415,8 +2433,8 @@
       <c r="K11" s="0" t="n">
         <v>0.0132</v>
       </c>
-      <c r="L11" s="4" t="s">
-        <v>36</v>
+      <c r="L11" s="6" t="s">
+        <v>35</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>0.27</v>
@@ -1442,7 +2460,7 @@
         <v>18</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>171</v>
@@ -1459,8 +2477,8 @@
       <c r="K12" s="0" t="n">
         <v>0.0281</v>
       </c>
-      <c r="L12" s="4" t="s">
-        <v>38</v>
+      <c r="L12" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>0.32</v>
@@ -1469,44 +2487,44 @@
         <v>3.271</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="0" t="s">
+      <c r="D13" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="G13" s="3" t="n">
         <v>649</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="3" t="n">
         <v>1530.7</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="3" t="n">
         <v>33636</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13" s="3" t="n">
         <v>0.1505</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13" s="3" t="n">
         <v>0.81</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="N13" s="3" t="n">
         <v>1.93</v>
       </c>
     </row>
@@ -1544,7 +2562,7 @@
       <c r="K14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M14" s="0" t="s">
@@ -1588,7 +2606,7 @@
       <c r="K15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M15" s="0" t="s">
@@ -1632,8 +2650,8 @@
       <c r="K16" s="0" t="n">
         <v>0.0754</v>
       </c>
-      <c r="L16" s="4" t="s">
-        <v>39</v>
+      <c r="L16" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>0.4</v>
@@ -1676,8 +2694,8 @@
       <c r="K17" s="0" t="n">
         <v>0.0158</v>
       </c>
-      <c r="L17" s="4" t="s">
-        <v>40</v>
+      <c r="L17" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>0.11</v>
@@ -1720,8 +2738,8 @@
       <c r="K18" s="0" t="n">
         <v>0.019</v>
       </c>
-      <c r="L18" s="4" t="s">
-        <v>41</v>
+      <c r="L18" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>0.18</v>
@@ -1764,8 +2782,8 @@
       <c r="K19" s="0" t="n">
         <v>0.006</v>
       </c>
-      <c r="L19" s="4" t="s">
-        <v>42</v>
+      <c r="L19" s="6" t="s">
+        <v>41</v>
       </c>
       <c r="M19" s="0" t="n">
         <v>0.03</v>
@@ -1791,7 +2809,7 @@
         <v>18</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>10</v>
@@ -1808,7 +2826,7 @@
       <c r="K20" s="0" t="n">
         <v>0.0023</v>
       </c>
-      <c r="L20" s="4" t="s">
+      <c r="L20" s="6" t="s">
         <v>43</v>
       </c>
       <c r="M20" s="0" t="n">
@@ -1835,7 +2853,7 @@
         <v>18</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>11</v>
@@ -1852,7 +2870,7 @@
       <c r="K21" s="0" t="n">
         <v>0.0026</v>
       </c>
-      <c r="L21" s="4" t="s">
+      <c r="L21" s="6" t="s">
         <v>44</v>
       </c>
       <c r="M21" s="0" t="n">
@@ -1879,7 +2897,7 @@
         <v>18</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>66</v>
@@ -1896,7 +2914,7 @@
       <c r="K22" s="0" t="n">
         <v>0.0153</v>
       </c>
-      <c r="L22" s="4" t="s">
+      <c r="L22" s="6" t="s">
         <v>45</v>
       </c>
       <c r="M22" s="0" t="n">
@@ -1923,7 +2941,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>61</v>
@@ -1940,7 +2958,7 @@
       <c r="K23" s="0" t="n">
         <v>0.0141</v>
       </c>
-      <c r="L23" s="4" t="s">
+      <c r="L23" s="6" t="s">
         <v>46</v>
       </c>
       <c r="M23" s="0" t="n">
@@ -1950,49 +2968,49 @@
         <v>1.933</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" s="0" t="s">
+      <c r="D24" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="0" t="n">
+      <c r="G24" s="3" t="n">
         <v>1012</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="3" t="n">
         <v>2638.03</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="J24" s="3" t="n">
         <v>65376</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="K24" s="3" t="n">
         <v>0.2736</v>
       </c>
       <c r="L24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="M24" s="3" t="n">
         <v>1.74</v>
       </c>
-      <c r="N24" s="0" t="n">
+      <c r="N24" s="3" t="n">
         <v>0.02</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -2025,7 +3043,7 @@
       <c r="K25" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L25" s="4" t="s">
+      <c r="L25" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M25" s="0" t="s">
@@ -2036,7 +3054,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -2069,7 +3087,7 @@
       <c r="K26" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M26" s="0" t="s">
@@ -2080,7 +3098,7 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -2113,7 +3131,7 @@
       <c r="K27" s="0" t="n">
         <v>0.1406</v>
       </c>
-      <c r="L27" s="4" t="s">
+      <c r="L27" s="6" t="s">
         <v>47</v>
       </c>
       <c r="M27" s="0" t="n">
@@ -2124,7 +3142,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -2157,7 +3175,7 @@
       <c r="K28" s="0" t="n">
         <v>0.0333</v>
       </c>
-      <c r="L28" s="4" t="s">
+      <c r="L28" s="6" t="s">
         <v>48</v>
       </c>
       <c r="M28" s="0" t="n">
@@ -2168,7 +3186,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -2201,7 +3219,7 @@
       <c r="K29" s="0" t="n">
         <v>0.0287</v>
       </c>
-      <c r="L29" s="4" t="s">
+      <c r="L29" s="6" t="s">
         <v>49</v>
       </c>
       <c r="M29" s="0" t="n">
@@ -2212,7 +3230,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -2245,7 +3263,7 @@
       <c r="K30" s="0" t="n">
         <v>0.0097</v>
       </c>
-      <c r="L30" s="4" t="s">
+      <c r="L30" s="6" t="s">
         <v>50</v>
       </c>
       <c r="M30" s="0" t="n">
@@ -2256,7 +3274,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -2272,7 +3290,7 @@
         <v>18</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G31" s="0" t="n">
         <v>10</v>
@@ -2289,7 +3307,7 @@
       <c r="K31" s="0" t="n">
         <v>0.0027</v>
       </c>
-      <c r="L31" s="4" t="s">
+      <c r="L31" s="6" t="s">
         <v>51</v>
       </c>
       <c r="M31" s="0" t="n">
@@ -2300,7 +3318,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -2316,7 +3334,7 @@
         <v>18</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G32" s="0" t="n">
         <v>13</v>
@@ -2333,7 +3351,7 @@
       <c r="K32" s="0" t="n">
         <v>0.0035</v>
       </c>
-      <c r="L32" s="4" t="s">
+      <c r="L32" s="6" t="s">
         <v>52</v>
       </c>
       <c r="M32" s="0" t="n">
@@ -2344,7 +3362,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -2360,7 +3378,7 @@
         <v>18</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>60</v>
@@ -2377,7 +3395,7 @@
       <c r="K33" s="0" t="n">
         <v>0.0162</v>
       </c>
-      <c r="L33" s="4" t="s">
+      <c r="L33" s="6" t="s">
         <v>53</v>
       </c>
       <c r="M33" s="0" t="n">
@@ -2388,7 +3406,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -2404,7 +3422,7 @@
         <v>18</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G34" s="0" t="n">
         <v>144</v>
@@ -2421,7 +3439,7 @@
       <c r="K34" s="0" t="n">
         <v>0.0389</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="L34" s="6" t="s">
         <v>54</v>
       </c>
       <c r="M34" s="0" t="n">
@@ -2431,49 +3449,49 @@
         <v>1.507</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="D35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" s="0" t="s">
+      <c r="D35" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="G35" s="3" t="n">
         <v>1032</v>
       </c>
-      <c r="H35" s="0" t="n">
+      <c r="H35" s="3" t="n">
         <v>2576.74</v>
       </c>
-      <c r="I35" s="0" t="n">
+      <c r="I35" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="J35" s="0" t="n">
+      <c r="J35" s="3" t="n">
         <v>59696</v>
       </c>
-      <c r="K35" s="0" t="n">
+      <c r="K35" s="3" t="n">
         <v>0.2732</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M35" s="0" t="n">
+      <c r="M35" s="3" t="n">
         <v>1.56</v>
       </c>
-      <c r="N35" s="0" t="n">
+      <c r="N35" s="3" t="n">
         <v>1.731</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -2506,7 +3524,7 @@
       <c r="K36" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L36" s="4" t="s">
+      <c r="L36" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M36" s="0" t="s">
@@ -2517,7 +3535,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -2550,7 +3568,7 @@
       <c r="K37" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="L37" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M37" s="0" t="s">
@@ -2561,7 +3579,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -2594,7 +3612,7 @@
       <c r="K38" s="0" t="n">
         <v>0.135</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="L38" s="6" t="s">
         <v>55</v>
       </c>
       <c r="M38" s="0" t="n">
@@ -2605,7 +3623,7 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -2638,7 +3656,7 @@
       <c r="K39" s="0" t="n">
         <v>0.0278</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="L39" s="6" t="s">
         <v>45</v>
       </c>
       <c r="M39" s="0" t="n">
@@ -2649,7 +3667,7 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -2682,7 +3700,7 @@
       <c r="K40" s="0" t="n">
         <v>0.0275</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="L40" s="6" t="s">
         <v>56</v>
       </c>
       <c r="M40" s="0" t="n">
@@ -2693,7 +3711,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -2726,7 +3744,7 @@
       <c r="K41" s="0" t="n">
         <v>0.0077</v>
       </c>
-      <c r="L41" s="4" t="s">
+      <c r="L41" s="6" t="s">
         <v>57</v>
       </c>
       <c r="M41" s="0" t="n">
@@ -2737,7 +3755,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -2753,7 +3771,7 @@
         <v>18</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G42" s="0" t="n">
         <v>11</v>
@@ -2770,7 +3788,7 @@
       <c r="K42" s="0" t="n">
         <v>0.0029</v>
       </c>
-      <c r="L42" s="4" t="s">
+      <c r="L42" s="6" t="s">
         <v>58</v>
       </c>
       <c r="M42" s="0" t="n">
@@ -2781,7 +3799,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -2797,7 +3815,7 @@
         <v>18</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G43" s="0" t="n">
         <v>18</v>
@@ -2814,7 +3832,7 @@
       <c r="K43" s="0" t="n">
         <v>0.0048</v>
       </c>
-      <c r="L43" s="4" t="s">
+      <c r="L43" s="6" t="s">
         <v>59</v>
       </c>
       <c r="M43" s="0" t="n">
@@ -2825,7 +3843,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -2841,7 +3859,7 @@
         <v>18</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G44" s="0" t="n">
         <v>94</v>
@@ -2858,7 +3876,7 @@
       <c r="K44" s="0" t="n">
         <v>0.0249</v>
       </c>
-      <c r="L44" s="4" t="s">
+      <c r="L44" s="6" t="s">
         <v>60</v>
       </c>
       <c r="M44" s="0" t="n">
@@ -2869,7 +3887,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -2885,7 +3903,7 @@
         <v>18</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G45" s="0" t="n">
         <v>161</v>
@@ -2902,7 +3920,7 @@
       <c r="K45" s="0" t="n">
         <v>0.0426</v>
       </c>
-      <c r="L45" s="4" t="s">
+      <c r="L45" s="6" t="s">
         <v>61</v>
       </c>
       <c r="M45" s="0" t="n">
@@ -2912,49 +3930,49 @@
         <v>1.734</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C46" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="D46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="0" t="s">
+      <c r="D46" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G46" s="0" t="n">
+      <c r="G46" s="3" t="n">
         <v>1028</v>
       </c>
-      <c r="H46" s="0" t="n">
+      <c r="H46" s="3" t="n">
         <v>2587.93</v>
       </c>
-      <c r="I46" s="0" t="n">
+      <c r="I46" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="J46" s="0" t="n">
+      <c r="J46" s="3" t="n">
         <v>45040</v>
       </c>
-      <c r="K46" s="0" t="n">
+      <c r="K46" s="3" t="n">
         <v>0.279</v>
       </c>
       <c r="L46" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M46" s="0" t="n">
+      <c r="M46" s="3" t="n">
         <v>1.51</v>
       </c>
-      <c r="N46" s="0" t="n">
+      <c r="N46" s="3" t="n">
         <v>2.826</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -2987,7 +4005,7 @@
       <c r="K47" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L47" s="4" t="s">
+      <c r="L47" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M47" s="0" t="s">
@@ -2998,7 +4016,7 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -3031,7 +4049,7 @@
       <c r="K48" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L48" s="4" t="s">
+      <c r="L48" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M48" s="0" t="s">
@@ -3042,7 +4060,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="s">
+      <c r="A49" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -3075,7 +4093,7 @@
       <c r="K49" s="0" t="n">
         <v>0.1363</v>
       </c>
-      <c r="L49" s="4" t="s">
+      <c r="L49" s="6" t="s">
         <v>62</v>
       </c>
       <c r="M49" s="0" t="n">
@@ -3086,7 +4104,7 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="s">
+      <c r="A50" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -3119,7 +4137,7 @@
       <c r="K50" s="0" t="n">
         <v>0.0274</v>
       </c>
-      <c r="L50" s="4" t="s">
+      <c r="L50" s="6" t="s">
         <v>63</v>
       </c>
       <c r="M50" s="0" t="n">
@@ -3130,7 +4148,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -3163,7 +4181,7 @@
       <c r="K51" s="0" t="n">
         <v>0.0299</v>
       </c>
-      <c r="L51" s="4" t="s">
+      <c r="L51" s="6" t="s">
         <v>64</v>
       </c>
       <c r="M51" s="0" t="n">
@@ -3174,7 +4192,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="6" t="s">
+      <c r="A52" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -3207,7 +4225,7 @@
       <c r="K52" s="0" t="n">
         <v>0.0076</v>
       </c>
-      <c r="L52" s="4" t="s">
+      <c r="L52" s="6" t="s">
         <v>65</v>
       </c>
       <c r="M52" s="0" t="n">
@@ -3218,7 +4236,7 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6" t="s">
+      <c r="A53" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -3234,7 +4252,7 @@
         <v>18</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G53" s="0" t="n">
         <v>13</v>
@@ -3251,7 +4269,7 @@
       <c r="K53" s="0" t="n">
         <v>0.0035</v>
       </c>
-      <c r="L53" s="4" t="s">
+      <c r="L53" s="6" t="s">
         <v>66</v>
       </c>
       <c r="M53" s="0" t="n">
@@ -3262,7 +4280,7 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="6" t="s">
+      <c r="A54" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -3278,7 +4296,7 @@
         <v>18</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G54" s="0" t="n">
         <v>23</v>
@@ -3295,7 +4313,7 @@
       <c r="K54" s="0" t="n">
         <v>0.0062</v>
       </c>
-      <c r="L54" s="4" t="s">
+      <c r="L54" s="6" t="s">
         <v>67</v>
       </c>
       <c r="M54" s="0" t="n">
@@ -3306,7 +4324,7 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -3322,7 +4340,7 @@
         <v>18</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G55" s="0" t="n">
         <v>85</v>
@@ -3339,7 +4357,7 @@
       <c r="K55" s="0" t="n">
         <v>0.0231</v>
       </c>
-      <c r="L55" s="4" t="s">
+      <c r="L55" s="6" t="s">
         <v>68</v>
       </c>
       <c r="M55" s="0" t="n">
@@ -3350,7 +4368,7 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="6" t="s">
+      <c r="A56" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -3366,7 +4384,7 @@
         <v>18</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G56" s="0" t="n">
         <v>166</v>
@@ -3383,7 +4401,7 @@
       <c r="K56" s="0" t="n">
         <v>0.0451</v>
       </c>
-      <c r="L56" s="4" t="s">
+      <c r="L56" s="6" t="s">
         <v>69</v>
       </c>
       <c r="M56" s="0" t="n">
@@ -3393,49 +4411,49 @@
         <v>2.832</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C57" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="D57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" s="0" t="s">
+      <c r="D57" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G57" s="0" t="n">
+      <c r="G57" s="3" t="n">
         <v>934</v>
       </c>
-      <c r="H57" s="0" t="n">
+      <c r="H57" s="3" t="n">
         <v>2831.99</v>
       </c>
-      <c r="I57" s="0" t="n">
+      <c r="I57" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="J57" s="0" t="n">
+      <c r="J57" s="3" t="n">
         <v>63956</v>
       </c>
-      <c r="K57" s="0" t="n">
+      <c r="K57" s="3" t="n">
         <v>0.2358</v>
       </c>
       <c r="L57" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M57" s="0" t="n">
+      <c r="M57" s="3" t="n">
         <v>1.47</v>
       </c>
-      <c r="N57" s="0" t="n">
+      <c r="N57" s="3" t="n">
         <v>1.501</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -3468,7 +4486,7 @@
       <c r="K58" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L58" s="4" t="s">
+      <c r="L58" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M58" s="0" t="s">
@@ -3479,7 +4497,7 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="6" t="s">
+      <c r="A59" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -3512,7 +4530,7 @@
       <c r="K59" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L59" s="4" t="s">
+      <c r="L59" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M59" s="0" t="s">
@@ -3523,7 +4541,7 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -3556,7 +4574,7 @@
       <c r="K60" s="0" t="n">
         <v>0.1154</v>
       </c>
-      <c r="L60" s="4" t="s">
+      <c r="L60" s="6" t="s">
         <v>70</v>
       </c>
       <c r="M60" s="0" t="n">
@@ -3567,7 +4585,7 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="6" t="s">
+      <c r="A61" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -3600,7 +4618,7 @@
       <c r="K61" s="0" t="n">
         <v>0.0255</v>
       </c>
-      <c r="L61" s="4" t="s">
+      <c r="L61" s="6" t="s">
         <v>71</v>
       </c>
       <c r="M61" s="0" t="n">
@@ -3611,7 +4629,7 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -3644,7 +4662,7 @@
       <c r="K62" s="0" t="n">
         <v>0.027</v>
       </c>
-      <c r="L62" s="4" t="s">
+      <c r="L62" s="6" t="s">
         <v>72</v>
       </c>
       <c r="M62" s="0" t="n">
@@ -3655,7 +4673,7 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="6" t="s">
+      <c r="A63" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -3688,7 +4706,7 @@
       <c r="K63" s="0" t="n">
         <v>0.0076</v>
       </c>
-      <c r="L63" s="4" t="s">
+      <c r="L63" s="6" t="s">
         <v>73</v>
       </c>
       <c r="M63" s="0" t="n">
@@ -3699,7 +4717,7 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -3715,7 +4733,7 @@
         <v>18</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G64" s="0" t="n">
         <v>9</v>
@@ -3732,7 +4750,7 @@
       <c r="K64" s="0" t="n">
         <v>0.0023</v>
       </c>
-      <c r="L64" s="4" t="s">
+      <c r="L64" s="6" t="s">
         <v>74</v>
       </c>
       <c r="M64" s="0" t="n">
@@ -3743,7 +4761,7 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="6" t="s">
+      <c r="A65" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -3759,7 +4777,7 @@
         <v>18</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G65" s="0" t="n">
         <v>23</v>
@@ -3776,7 +4794,7 @@
       <c r="K65" s="0" t="n">
         <v>0.0058</v>
       </c>
-      <c r="L65" s="4" t="s">
+      <c r="L65" s="6" t="s">
         <v>75</v>
       </c>
       <c r="M65" s="0" t="n">
@@ -3787,7 +4805,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="6" t="s">
+      <c r="A66" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -3803,7 +4821,7 @@
         <v>18</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G66" s="0" t="n">
         <v>57</v>
@@ -3820,7 +4838,7 @@
       <c r="K66" s="0" t="n">
         <v>0.0144</v>
       </c>
-      <c r="L66" s="4" t="s">
+      <c r="L66" s="6" t="s">
         <v>76</v>
       </c>
       <c r="M66" s="0" t="n">
@@ -3831,7 +4849,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -3847,7 +4865,7 @@
         <v>18</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G67" s="0" t="n">
         <v>150</v>
@@ -3864,7 +4882,7 @@
       <c r="K67" s="0" t="n">
         <v>0.0379</v>
       </c>
-      <c r="L67" s="4" t="s">
+      <c r="L67" s="6" t="s">
         <v>77</v>
       </c>
       <c r="M67" s="0" t="n">
@@ -3874,49 +4892,49 @@
         <v>1.616</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C68" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="D68" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F68" s="0" t="s">
+      <c r="D68" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G68" s="0" t="n">
+      <c r="G68" s="3" t="n">
         <v>966</v>
       </c>
-      <c r="H68" s="0" t="n">
+      <c r="H68" s="3" t="n">
         <v>2742.85</v>
       </c>
-      <c r="I68" s="0" t="n">
+      <c r="I68" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="J68" s="0" t="n">
+      <c r="J68" s="3" t="n">
         <v>63956</v>
       </c>
-      <c r="K68" s="0" t="n">
+      <c r="K68" s="3" t="n">
         <v>0.1565</v>
       </c>
       <c r="L68" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M68" s="0" t="n">
+      <c r="M68" s="3" t="n">
         <v>1.6</v>
       </c>
-      <c r="N68" s="0" t="n">
+      <c r="N68" s="3" t="n">
         <v>3.692</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="6" t="s">
+      <c r="A69" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -3949,7 +4967,7 @@
       <c r="K69" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L69" s="4" t="s">
+      <c r="L69" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M69" s="0" t="s">
@@ -3960,7 +4978,7 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="6" t="s">
+      <c r="A70" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -3993,7 +5011,7 @@
       <c r="K70" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L70" s="4" t="s">
+      <c r="L70" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M70" s="0" t="s">
@@ -4004,7 +5022,7 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -4037,7 +5055,7 @@
       <c r="K71" s="0" t="n">
         <v>0.077</v>
       </c>
-      <c r="L71" s="4" t="s">
+      <c r="L71" s="6" t="s">
         <v>78</v>
       </c>
       <c r="M71" s="0" t="n">
@@ -4048,7 +5066,7 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="6" t="s">
+      <c r="A72" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -4081,7 +5099,7 @@
       <c r="K72" s="0" t="n">
         <v>0.0165</v>
       </c>
-      <c r="L72" s="4" t="s">
+      <c r="L72" s="6" t="s">
         <v>79</v>
       </c>
       <c r="M72" s="0" t="n">
@@ -4092,7 +5110,7 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -4125,7 +5143,7 @@
       <c r="K73" s="0" t="n">
         <v>0.0183</v>
       </c>
-      <c r="L73" s="4" t="s">
+      <c r="L73" s="6" t="s">
         <v>80</v>
       </c>
       <c r="M73" s="0" t="n">
@@ -4136,7 +5154,7 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="6" t="s">
+      <c r="A74" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B74" s="5" t="s">
@@ -4169,7 +5187,7 @@
       <c r="K74" s="0" t="n">
         <v>0.0047</v>
       </c>
-      <c r="L74" s="4" t="s">
+      <c r="L74" s="6" t="s">
         <v>81</v>
       </c>
       <c r="M74" s="0" t="n">
@@ -4180,7 +5198,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -4196,7 +5214,7 @@
         <v>18</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G75" s="0" t="n">
         <v>11</v>
@@ -4213,7 +5231,7 @@
       <c r="K75" s="0" t="n">
         <v>0.0018</v>
       </c>
-      <c r="L75" s="4" t="s">
+      <c r="L75" s="6" t="s">
         <v>82</v>
       </c>
       <c r="M75" s="0" t="n">
@@ -4224,7 +5242,7 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="6" t="s">
+      <c r="A76" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -4240,7 +5258,7 @@
         <v>18</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G76" s="0" t="n">
         <v>18</v>
@@ -4257,7 +5275,7 @@
       <c r="K76" s="0" t="n">
         <v>0.0029</v>
       </c>
-      <c r="L76" s="4" t="s">
+      <c r="L76" s="6" t="s">
         <v>83</v>
       </c>
       <c r="M76" s="0" t="n">
@@ -4268,7 +5286,7 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="6" t="s">
+      <c r="A77" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -4284,7 +5302,7 @@
         <v>18</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G77" s="0" t="n">
         <v>73</v>
@@ -4301,7 +5319,7 @@
       <c r="K77" s="0" t="n">
         <v>0.0118</v>
       </c>
-      <c r="L77" s="4" t="s">
+      <c r="L77" s="6" t="s">
         <v>84</v>
       </c>
       <c r="M77" s="0" t="n">
@@ -4312,7 +5330,7 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -4328,7 +5346,7 @@
         <v>18</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G78" s="0" t="n">
         <v>145</v>
@@ -4345,7 +5363,7 @@
       <c r="K78" s="0" t="n">
         <v>0.0235</v>
       </c>
-      <c r="L78" s="4" t="s">
+      <c r="L78" s="6" t="s">
         <v>85</v>
       </c>
       <c r="M78" s="0" t="n">
@@ -4355,49 +5373,49 @@
         <v>3.71</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C79" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="D79" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F79" s="0" t="s">
+      <c r="D79" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G79" s="0" t="n">
+      <c r="G79" s="3" t="n">
         <v>1032</v>
       </c>
-      <c r="H79" s="0" t="n">
+      <c r="H79" s="3" t="n">
         <v>2587.52</v>
       </c>
-      <c r="I79" s="0" t="n">
+      <c r="I79" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="J79" s="0" t="n">
+      <c r="J79" s="3" t="n">
         <v>45496</v>
       </c>
-      <c r="K79" s="0" t="n">
+      <c r="K79" s="3" t="n">
         <v>0.2316</v>
       </c>
       <c r="L79" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M79" s="0" t="n">
+      <c r="M79" s="3" t="n">
         <v>1.36</v>
       </c>
-      <c r="N79" s="0" t="n">
+      <c r="N79" s="3" t="n">
         <v>1.795</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="6" t="s">
+      <c r="A80" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -4430,7 +5448,7 @@
       <c r="K80" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L80" s="4" t="s">
+      <c r="L80" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M80" s="0" t="s">
@@ -4441,7 +5459,7 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="6" t="s">
+      <c r="A81" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -4474,7 +5492,7 @@
       <c r="K81" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L81" s="4" t="s">
+      <c r="L81" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M81" s="0" t="s">
@@ -4485,7 +5503,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -4518,7 +5536,7 @@
       <c r="K82" s="0" t="n">
         <v>0.1003</v>
       </c>
-      <c r="L82" s="4" t="s">
+      <c r="L82" s="6" t="s">
         <v>86</v>
       </c>
       <c r="M82" s="0" t="n">
@@ -4529,7 +5547,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="6" t="s">
+      <c r="A83" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -4562,7 +5580,7 @@
       <c r="K83" s="0" t="n">
         <v>0.0209</v>
       </c>
-      <c r="L83" s="4" t="s">
+      <c r="L83" s="6" t="s">
         <v>87</v>
       </c>
       <c r="M83" s="0" t="n">
@@ -4573,7 +5591,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="6" t="s">
+      <c r="A84" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -4606,7 +5624,7 @@
       <c r="K84" s="0" t="n">
         <v>0.0269</v>
       </c>
-      <c r="L84" s="4" t="s">
+      <c r="L84" s="6" t="s">
         <v>88</v>
       </c>
       <c r="M84" s="0" t="n">
@@ -4617,7 +5635,7 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="6" t="s">
+      <c r="A85" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -4650,7 +5668,7 @@
       <c r="K85" s="0" t="n">
         <v>0.0074</v>
       </c>
-      <c r="L85" s="4" t="s">
+      <c r="L85" s="6" t="s">
         <v>89</v>
       </c>
       <c r="M85" s="0" t="n">
@@ -4661,7 +5679,7 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="6" t="s">
+      <c r="A86" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B86" s="5" t="s">
@@ -4677,7 +5695,7 @@
         <v>18</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G86" s="0" t="n">
         <v>20</v>
@@ -4694,7 +5712,7 @@
       <c r="K86" s="0" t="n">
         <v>0.0045</v>
       </c>
-      <c r="L86" s="4" t="s">
+      <c r="L86" s="6" t="s">
         <v>90</v>
       </c>
       <c r="M86" s="0" t="n">
@@ -4705,7 +5723,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="6" t="s">
+      <c r="A87" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -4721,7 +5739,7 @@
         <v>18</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G87" s="0" t="n">
         <v>31</v>
@@ -4738,7 +5756,7 @@
       <c r="K87" s="0" t="n">
         <v>0.007</v>
       </c>
-      <c r="L87" s="4" t="s">
+      <c r="L87" s="6" t="s">
         <v>81</v>
       </c>
       <c r="M87" s="0" t="n">
@@ -4749,7 +5767,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="6" t="s">
+      <c r="A88" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -4765,7 +5783,7 @@
         <v>18</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G88" s="0" t="n">
         <v>103</v>
@@ -4782,7 +5800,7 @@
       <c r="K88" s="0" t="n">
         <v>0.0231</v>
       </c>
-      <c r="L88" s="4" t="s">
+      <c r="L88" s="6" t="s">
         <v>91</v>
       </c>
       <c r="M88" s="0" t="n">
@@ -4793,7 +5811,7 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="6" t="s">
+      <c r="A89" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -4809,7 +5827,7 @@
         <v>18</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G89" s="0" t="n">
         <v>185</v>
@@ -4826,7 +5844,7 @@
       <c r="K89" s="0" t="n">
         <v>0.0415</v>
       </c>
-      <c r="L89" s="4" t="s">
+      <c r="L89" s="6" t="s">
         <v>92</v>
       </c>
       <c r="M89" s="0" t="n">
@@ -4836,49 +5854,49 @@
         <v>1.53</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C90" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D90" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F90" s="0" t="s">
+      <c r="D90" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G90" s="0" t="n">
+      <c r="G90" s="3" t="n">
         <v>1035</v>
       </c>
-      <c r="H90" s="0" t="n">
+      <c r="H90" s="3" t="n">
         <v>2568.08</v>
       </c>
-      <c r="I90" s="0" t="n">
+      <c r="I90" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="J90" s="0" t="n">
+      <c r="J90" s="3" t="n">
         <v>63956</v>
       </c>
-      <c r="K90" s="0" t="n">
+      <c r="K90" s="3" t="n">
         <v>0.2062</v>
       </c>
       <c r="L90" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M90" s="0" t="n">
+      <c r="M90" s="3" t="n">
         <v>2.02</v>
       </c>
-      <c r="N90" s="0" t="n">
+      <c r="N90" s="3" t="n">
         <v>1.443</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -4911,7 +5929,7 @@
       <c r="K91" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L91" s="4" t="s">
+      <c r="L91" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M91" s="0" t="s">
@@ -4922,7 +5940,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B92" s="5" t="s">
@@ -4955,7 +5973,7 @@
       <c r="K92" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L92" s="4" t="s">
+      <c r="L92" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M92" s="0" t="s">
@@ -4966,7 +5984,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B93" s="5" t="s">
@@ -4999,7 +6017,7 @@
       <c r="K93" s="0" t="n">
         <v>0.1012</v>
       </c>
-      <c r="L93" s="4" t="s">
+      <c r="L93" s="6" t="s">
         <v>93</v>
       </c>
       <c r="M93" s="0" t="n">
@@ -5010,7 +6028,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -5043,7 +6061,7 @@
       <c r="K94" s="0" t="n">
         <v>0.0203</v>
       </c>
-      <c r="L94" s="4" t="s">
+      <c r="L94" s="6" t="s">
         <v>94</v>
       </c>
       <c r="M94" s="0" t="n">
@@ -5054,7 +6072,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B95" s="5" t="s">
@@ -5087,7 +6105,7 @@
       <c r="K95" s="0" t="n">
         <v>0.0213</v>
       </c>
-      <c r="L95" s="4" t="s">
+      <c r="L95" s="6" t="s">
         <v>95</v>
       </c>
       <c r="M95" s="0" t="n">
@@ -5098,7 +6116,7 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="6" t="s">
+      <c r="A96" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B96" s="5" t="s">
@@ -5131,7 +6149,7 @@
       <c r="K96" s="0" t="n">
         <v>0.006</v>
       </c>
-      <c r="L96" s="4" t="s">
+      <c r="L96" s="6" t="s">
         <v>96</v>
       </c>
       <c r="M96" s="0" t="n">
@@ -5142,7 +6160,7 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="6" t="s">
+      <c r="A97" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B97" s="5" t="s">
@@ -5158,7 +6176,7 @@
         <v>18</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G97" s="0" t="n">
         <v>12</v>
@@ -5175,7 +6193,7 @@
       <c r="K97" s="0" t="n">
         <v>0.0024</v>
       </c>
-      <c r="L97" s="4" t="s">
+      <c r="L97" s="6" t="s">
         <v>97</v>
       </c>
       <c r="M97" s="0" t="n">
@@ -5186,7 +6204,7 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="6" t="s">
+      <c r="A98" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B98" s="5" t="s">
@@ -5202,7 +6220,7 @@
         <v>18</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G98" s="0" t="n">
         <v>32</v>
@@ -5219,7 +6237,7 @@
       <c r="K98" s="0" t="n">
         <v>0.0064</v>
       </c>
-      <c r="L98" s="4" t="s">
+      <c r="L98" s="6" t="s">
         <v>98</v>
       </c>
       <c r="M98" s="0" t="n">
@@ -5230,7 +6248,7 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="6" t="s">
+      <c r="A99" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B99" s="5" t="s">
@@ -5246,7 +6264,7 @@
         <v>18</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G99" s="0" t="n">
         <v>87</v>
@@ -5263,7 +6281,7 @@
       <c r="K99" s="0" t="n">
         <v>0.0173</v>
       </c>
-      <c r="L99" s="4" t="s">
+      <c r="L99" s="6" t="s">
         <v>99</v>
       </c>
       <c r="M99" s="0" t="n">
@@ -5274,7 +6292,7 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="6" t="s">
+      <c r="A100" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -5290,7 +6308,7 @@
         <v>18</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G100" s="0" t="n">
         <v>157</v>
@@ -5307,7 +6325,7 @@
       <c r="K100" s="0" t="n">
         <v>0.0313</v>
       </c>
-      <c r="L100" s="4" t="s">
+      <c r="L100" s="6" t="s">
         <v>100</v>
       </c>
       <c r="M100" s="0" t="n">
@@ -5317,49 +6335,49 @@
         <v>1.443</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C101" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="D101" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F101" s="0" t="s">
+      <c r="D101" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G101" s="0" t="n">
+      <c r="G101" s="3" t="n">
         <v>1042</v>
       </c>
-      <c r="H101" s="0" t="n">
+      <c r="H101" s="3" t="n">
         <v>2546.01</v>
       </c>
-      <c r="I101" s="0" t="n">
+      <c r="I101" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="J101" s="0" t="n">
+      <c r="J101" s="3" t="n">
         <v>63956</v>
       </c>
-      <c r="K101" s="0" t="n">
+      <c r="K101" s="3" t="n">
         <v>0.2577</v>
       </c>
       <c r="L101" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M101" s="0" t="n">
+      <c r="M101" s="3" t="n">
         <v>1.52</v>
       </c>
-      <c r="N101" s="0" t="n">
+      <c r="N101" s="3" t="n">
         <v>1.202</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="6" t="s">
+      <c r="A102" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -5392,7 +6410,7 @@
       <c r="K102" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L102" s="4" t="s">
+      <c r="L102" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M102" s="0" t="s">
@@ -5403,7 +6421,7 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="6" t="s">
+      <c r="A103" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B103" s="5" t="s">
@@ -5436,7 +6454,7 @@
       <c r="K103" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L103" s="4" t="s">
+      <c r="L103" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M103" s="0" t="s">
@@ -5447,7 +6465,7 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="6" t="s">
+      <c r="A104" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B104" s="5" t="s">
@@ -5480,7 +6498,7 @@
       <c r="K104" s="0" t="n">
         <v>0.1242</v>
       </c>
-      <c r="L104" s="4" t="s">
+      <c r="L104" s="6" t="s">
         <v>101</v>
       </c>
       <c r="M104" s="0" t="n">
@@ -5491,7 +6509,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="6" t="s">
+      <c r="A105" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B105" s="5" t="s">
@@ -5524,7 +6542,7 @@
       <c r="K105" s="0" t="n">
         <v>0.0262</v>
       </c>
-      <c r="L105" s="4" t="s">
+      <c r="L105" s="6" t="s">
         <v>45</v>
       </c>
       <c r="M105" s="0" t="n">
@@ -5535,7 +6553,7 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="6" t="s">
+      <c r="A106" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B106" s="5" t="s">
@@ -5568,7 +6586,7 @@
       <c r="K106" s="0" t="n">
         <v>0.027</v>
       </c>
-      <c r="L106" s="4" t="s">
+      <c r="L106" s="6" t="s">
         <v>102</v>
       </c>
       <c r="M106" s="0" t="n">
@@ -5579,7 +6597,7 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B107" s="5" t="s">
@@ -5612,7 +6630,7 @@
       <c r="K107" s="0" t="n">
         <v>0.0057</v>
       </c>
-      <c r="L107" s="4" t="s">
+      <c r="L107" s="6" t="s">
         <v>103</v>
       </c>
       <c r="M107" s="0" t="n">
@@ -5623,7 +6641,7 @@
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="6" t="s">
+      <c r="A108" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B108" s="5" t="s">
@@ -5639,7 +6657,7 @@
         <v>18</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G108" s="0" t="n">
         <v>18</v>
@@ -5656,7 +6674,7 @@
       <c r="K108" s="0" t="n">
         <v>0.0045</v>
       </c>
-      <c r="L108" s="4" t="s">
+      <c r="L108" s="6" t="s">
         <v>104</v>
       </c>
       <c r="M108" s="0" t="n">
@@ -5667,7 +6685,7 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="6" t="s">
+      <c r="A109" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B109" s="5" t="s">
@@ -5683,7 +6701,7 @@
         <v>18</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G109" s="0" t="n">
         <v>27</v>
@@ -5700,7 +6718,7 @@
       <c r="K109" s="0" t="n">
         <v>0.0067</v>
       </c>
-      <c r="L109" s="4" t="s">
+      <c r="L109" s="6" t="s">
         <v>105</v>
       </c>
       <c r="M109" s="0" t="n">
@@ -5711,7 +6729,7 @@
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="6" t="s">
+      <c r="A110" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B110" s="5" t="s">
@@ -5727,7 +6745,7 @@
         <v>18</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G110" s="0" t="n">
         <v>89</v>
@@ -5744,7 +6762,7 @@
       <c r="K110" s="0" t="n">
         <v>0.022</v>
       </c>
-      <c r="L110" s="4" t="s">
+      <c r="L110" s="6" t="s">
         <v>106</v>
       </c>
       <c r="M110" s="0" t="n">
@@ -5755,7 +6773,7 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="6" t="s">
+      <c r="A111" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B111" s="5" t="s">
@@ -5771,7 +6789,7 @@
         <v>18</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G111" s="0" t="n">
         <v>168</v>
@@ -5788,7 +6806,7 @@
       <c r="K111" s="0" t="n">
         <v>0.0416</v>
       </c>
-      <c r="L111" s="4" t="s">
+      <c r="L111" s="6" t="s">
         <v>107</v>
       </c>
       <c r="M111" s="0" t="n">
@@ -5798,44 +6816,44 @@
         <v>1.267</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C112" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D112" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F112" s="0" t="s">
+      <c r="D112" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G112" s="0" t="n">
+      <c r="G112" s="3" t="n">
         <v>3035</v>
       </c>
-      <c r="H112" s="0" t="n">
+      <c r="H112" s="3" t="n">
         <v>1036.04</v>
       </c>
-      <c r="I112" s="0" t="n">
+      <c r="I112" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="J112" s="0" t="n">
+      <c r="J112" s="3" t="n">
         <v>1514</v>
       </c>
-      <c r="K112" s="0" t="n">
+      <c r="K112" s="3" t="n">
         <v>0.93</v>
       </c>
       <c r="L112" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M112" s="0" t="n">
+      <c r="M112" s="3" t="n">
         <v>10.71</v>
       </c>
-      <c r="N112" s="0" t="n">
+      <c r="N112" s="3" t="n">
         <v>2.011</v>
       </c>
     </row>
@@ -5873,7 +6891,7 @@
       <c r="K113" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L113" s="4" t="s">
+      <c r="L113" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M113" s="0" t="s">
@@ -5917,7 +6935,7 @@
       <c r="K114" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L114" s="4" t="s">
+      <c r="L114" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M114" s="0" t="s">
@@ -5961,7 +6979,7 @@
       <c r="K115" s="0" t="n">
         <v>0.1658</v>
       </c>
-      <c r="L115" s="4" t="s">
+      <c r="L115" s="6" t="s">
         <v>109</v>
       </c>
       <c r="M115" s="0" t="n">
@@ -6005,7 +7023,7 @@
       <c r="K116" s="0" t="n">
         <v>0.0515</v>
       </c>
-      <c r="L116" s="4" t="s">
+      <c r="L116" s="6" t="s">
         <v>110</v>
       </c>
       <c r="M116" s="0" t="n">
@@ -6049,7 +7067,7 @@
       <c r="K117" s="0" t="n">
         <v>0.0644</v>
       </c>
-      <c r="L117" s="4" t="s">
+      <c r="L117" s="6" t="s">
         <v>111</v>
       </c>
       <c r="M117" s="0" t="n">
@@ -6093,7 +7111,7 @@
       <c r="K118" s="0" t="n">
         <v>0.0199</v>
       </c>
-      <c r="L118" s="4" t="s">
+      <c r="L118" s="6" t="s">
         <v>112</v>
       </c>
       <c r="M118" s="0" t="n">
@@ -6120,7 +7138,7 @@
         <v>18</v>
       </c>
       <c r="F119" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G119" s="0" t="n">
         <v>73</v>
@@ -6137,7 +7155,7 @@
       <c r="K119" s="0" t="n">
         <v>0.0224</v>
       </c>
-      <c r="L119" s="4" t="s">
+      <c r="L119" s="6" t="s">
         <v>113</v>
       </c>
       <c r="M119" s="0" t="n">
@@ -6164,7 +7182,7 @@
         <v>18</v>
       </c>
       <c r="F120" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G120" s="0" t="n">
         <v>1978</v>
@@ -6181,7 +7199,7 @@
       <c r="K120" s="0" t="n">
         <v>0.6061</v>
       </c>
-      <c r="L120" s="4" t="s">
+      <c r="L120" s="6" t="s">
         <v>114</v>
       </c>
       <c r="M120" s="0" t="n">
@@ -6208,7 +7226,7 @@
         <v>18</v>
       </c>
       <c r="F121" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G121" s="0" t="n">
         <v>0</v>
@@ -6225,7 +7243,7 @@
       <c r="K121" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L121" s="4" t="s">
+      <c r="L121" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M121" s="0" t="s">
@@ -6252,7 +7270,7 @@
         <v>18</v>
       </c>
       <c r="F122" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G122" s="0" t="n">
         <v>0</v>
@@ -6269,7 +7287,7 @@
       <c r="K122" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L122" s="4" t="s">
+      <c r="L122" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M122" s="0" t="s">
@@ -6279,44 +7297,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C123" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D123" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F123" s="0" t="s">
+      <c r="D123" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G123" s="0" t="n">
+      <c r="G123" s="3" t="n">
         <v>2944</v>
       </c>
-      <c r="H123" s="0" t="n">
+      <c r="H123" s="3" t="n">
         <v>1042.28</v>
       </c>
-      <c r="I123" s="0" t="n">
+      <c r="I123" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="J123" s="0" t="n">
+      <c r="J123" s="3" t="n">
         <v>1514</v>
       </c>
-      <c r="K123" s="0" t="n">
+      <c r="K123" s="3" t="n">
         <v>0.7556</v>
       </c>
       <c r="L123" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M123" s="0" t="n">
+      <c r="M123" s="3" t="n">
         <v>7.33</v>
       </c>
-      <c r="N123" s="0" t="n">
+      <c r="N123" s="3" t="n">
         <v>2.598</v>
       </c>
     </row>
@@ -6354,7 +7372,7 @@
       <c r="K124" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L124" s="4" t="s">
+      <c r="L124" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M124" s="0" t="s">
@@ -6398,7 +7416,7 @@
       <c r="K125" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L125" s="4" t="s">
+      <c r="L125" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M125" s="0" t="s">
@@ -6442,7 +7460,7 @@
       <c r="K126" s="0" t="n">
         <v>0.1612</v>
       </c>
-      <c r="L126" s="4" t="s">
+      <c r="L126" s="6" t="s">
         <v>115</v>
       </c>
       <c r="M126" s="0" t="n">
@@ -6486,7 +7504,7 @@
       <c r="K127" s="0" t="n">
         <v>0.0308</v>
       </c>
-      <c r="L127" s="4" t="s">
+      <c r="L127" s="6" t="s">
         <v>116</v>
       </c>
       <c r="M127" s="0" t="n">
@@ -6530,7 +7548,7 @@
       <c r="K128" s="0" t="n">
         <v>0.0357</v>
       </c>
-      <c r="L128" s="4" t="s">
+      <c r="L128" s="6" t="s">
         <v>117</v>
       </c>
       <c r="M128" s="0" t="n">
@@ -6574,7 +7592,7 @@
       <c r="K129" s="0" t="n">
         <v>0.0092</v>
       </c>
-      <c r="L129" s="4" t="s">
+      <c r="L129" s="6" t="s">
         <v>118</v>
       </c>
       <c r="M129" s="0" t="n">
@@ -6601,7 +7619,7 @@
         <v>18</v>
       </c>
       <c r="F130" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G130" s="0" t="n">
         <v>69</v>
@@ -6618,7 +7636,7 @@
       <c r="K130" s="0" t="n">
         <v>0.0177</v>
       </c>
-      <c r="L130" s="4" t="s">
+      <c r="L130" s="6" t="s">
         <v>119</v>
       </c>
       <c r="M130" s="0" t="n">
@@ -6645,7 +7663,7 @@
         <v>18</v>
       </c>
       <c r="F131" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G131" s="0" t="n">
         <v>1952</v>
@@ -6662,7 +7680,7 @@
       <c r="K131" s="0" t="n">
         <v>0.501</v>
       </c>
-      <c r="L131" s="4" t="s">
+      <c r="L131" s="6" t="s">
         <v>120</v>
       </c>
       <c r="M131" s="0" t="n">
@@ -6689,7 +7707,7 @@
         <v>18</v>
       </c>
       <c r="F132" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G132" s="0" t="n">
         <v>0</v>
@@ -6706,7 +7724,7 @@
       <c r="K132" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L132" s="4" t="s">
+      <c r="L132" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M132" s="0" t="s">
@@ -6733,7 +7751,7 @@
         <v>18</v>
       </c>
       <c r="F133" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G133" s="0" t="n">
         <v>0</v>
@@ -6750,7 +7768,7 @@
       <c r="K133" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L133" s="4" t="s">
+      <c r="L133" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M133" s="0" t="s">
@@ -6760,44 +7778,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C134" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D134" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F134" s="0" t="s">
+      <c r="D134" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G134" s="0" t="n">
+      <c r="G134" s="3" t="n">
         <v>2851</v>
       </c>
-      <c r="H134" s="0" t="n">
+      <c r="H134" s="3" t="n">
         <v>1072.37</v>
       </c>
-      <c r="I134" s="0" t="n">
+      <c r="I134" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="J134" s="0" t="n">
+      <c r="J134" s="3" t="n">
         <v>1514</v>
       </c>
-      <c r="K134" s="0" t="n">
+      <c r="K134" s="3" t="n">
         <v>0.9674</v>
       </c>
       <c r="L134" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M134" s="0" t="n">
+      <c r="M134" s="3" t="n">
         <v>7.23</v>
       </c>
-      <c r="N134" s="0" t="n">
+      <c r="N134" s="3" t="n">
         <v>1.455</v>
       </c>
     </row>
@@ -6835,7 +7853,7 @@
       <c r="K135" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L135" s="4" t="s">
+      <c r="L135" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M135" s="0" t="s">
@@ -6879,7 +7897,7 @@
       <c r="K136" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L136" s="4" t="s">
+      <c r="L136" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M136" s="0" t="s">
@@ -6923,7 +7941,7 @@
       <c r="K137" s="0" t="n">
         <v>0.1815</v>
       </c>
-      <c r="L137" s="4" t="s">
+      <c r="L137" s="6" t="s">
         <v>121</v>
       </c>
       <c r="M137" s="0" t="n">
@@ -6967,7 +7985,7 @@
       <c r="K138" s="0" t="n">
         <v>0.0383</v>
       </c>
-      <c r="L138" s="4" t="s">
+      <c r="L138" s="6" t="s">
         <v>122</v>
       </c>
       <c r="M138" s="0" t="n">
@@ -7011,7 +8029,7 @@
       <c r="K139" s="0" t="n">
         <v>0.0516</v>
       </c>
-      <c r="L139" s="4" t="s">
+      <c r="L139" s="6" t="s">
         <v>123</v>
       </c>
       <c r="M139" s="0" t="n">
@@ -7055,7 +8073,7 @@
       <c r="K140" s="0" t="n">
         <v>0.0115</v>
       </c>
-      <c r="L140" s="4" t="s">
+      <c r="L140" s="6" t="s">
         <v>124</v>
       </c>
       <c r="M140" s="0" t="n">
@@ -7082,7 +8100,7 @@
         <v>18</v>
       </c>
       <c r="F141" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G141" s="0" t="n">
         <v>69</v>
@@ -7099,7 +8117,7 @@
       <c r="K141" s="0" t="n">
         <v>0.0234</v>
       </c>
-      <c r="L141" s="4" t="s">
+      <c r="L141" s="6" t="s">
         <v>125</v>
       </c>
       <c r="M141" s="0" t="n">
@@ -7126,7 +8144,7 @@
         <v>18</v>
       </c>
       <c r="F142" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G142" s="0" t="n">
         <v>1948</v>
@@ -7143,7 +8161,7 @@
       <c r="K142" s="0" t="n">
         <v>0.661</v>
       </c>
-      <c r="L142" s="4" t="s">
+      <c r="L142" s="6" t="s">
         <v>126</v>
       </c>
       <c r="M142" s="0" t="n">
@@ -7170,7 +8188,7 @@
         <v>18</v>
       </c>
       <c r="F143" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G143" s="0" t="n">
         <v>0</v>
@@ -7187,7 +8205,7 @@
       <c r="K143" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L143" s="4" t="s">
+      <c r="L143" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M143" s="0" t="s">
@@ -7214,7 +8232,7 @@
         <v>18</v>
       </c>
       <c r="F144" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G144" s="0" t="n">
         <v>0</v>
@@ -7231,7 +8249,7 @@
       <c r="K144" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L144" s="4" t="s">
+      <c r="L144" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M144" s="0" t="s">
@@ -7241,44 +8259,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C145" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="D145" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F145" s="0" t="s">
+      <c r="D145" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G145" s="0" t="n">
+      <c r="G145" s="3" t="n">
         <v>2776</v>
       </c>
-      <c r="H145" s="0" t="n">
+      <c r="H145" s="3" t="n">
         <v>1098.26</v>
       </c>
-      <c r="I145" s="0" t="n">
+      <c r="I145" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="J145" s="0" t="n">
+      <c r="J145" s="3" t="n">
         <v>1514</v>
       </c>
-      <c r="K145" s="0" t="n">
+      <c r="K145" s="3" t="n">
         <v>0.9542</v>
       </c>
       <c r="L145" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M145" s="0" t="n">
+      <c r="M145" s="3" t="n">
         <v>7.3</v>
       </c>
-      <c r="N145" s="0" t="n">
+      <c r="N145" s="3" t="n">
         <v>1.421</v>
       </c>
     </row>
@@ -7316,7 +8334,7 @@
       <c r="K146" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L146" s="4" t="s">
+      <c r="L146" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M146" s="0" t="s">
@@ -7360,7 +8378,7 @@
       <c r="K147" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L147" s="4" t="s">
+      <c r="L147" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M147" s="0" t="s">
@@ -7404,7 +8422,7 @@
       <c r="K148" s="0" t="n">
         <v>0.1777</v>
       </c>
-      <c r="L148" s="4" t="s">
+      <c r="L148" s="6" t="s">
         <v>127</v>
       </c>
       <c r="M148" s="0" t="n">
@@ -7448,7 +8466,7 @@
       <c r="K149" s="0" t="n">
         <v>0.034</v>
       </c>
-      <c r="L149" s="4" t="s">
+      <c r="L149" s="6" t="s">
         <v>128</v>
       </c>
       <c r="M149" s="0" t="n">
@@ -7492,7 +8510,7 @@
       <c r="K150" s="0" t="n">
         <v>0.0409</v>
       </c>
-      <c r="L150" s="4" t="s">
+      <c r="L150" s="6" t="s">
         <v>129</v>
       </c>
       <c r="M150" s="0" t="n">
@@ -7536,7 +8554,7 @@
       <c r="K151" s="0" t="n">
         <v>0.0113</v>
       </c>
-      <c r="L151" s="4" t="s">
+      <c r="L151" s="6" t="s">
         <v>124</v>
       </c>
       <c r="M151" s="0" t="n">
@@ -7563,7 +8581,7 @@
         <v>18</v>
       </c>
       <c r="F152" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G152" s="0" t="n">
         <v>46</v>
@@ -7580,7 +8598,7 @@
       <c r="K152" s="0" t="n">
         <v>0.0158</v>
       </c>
-      <c r="L152" s="4" t="s">
+      <c r="L152" s="6" t="s">
         <v>130</v>
       </c>
       <c r="M152" s="0" t="n">
@@ -7607,7 +8625,7 @@
         <v>18</v>
       </c>
       <c r="F153" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G153" s="0" t="n">
         <v>1962</v>
@@ -7624,7 +8642,7 @@
       <c r="K153" s="0" t="n">
         <v>0.6744</v>
       </c>
-      <c r="L153" s="4" t="s">
+      <c r="L153" s="6" t="s">
         <v>131</v>
       </c>
       <c r="M153" s="0" t="n">
@@ -7651,7 +8669,7 @@
         <v>18</v>
       </c>
       <c r="F154" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G154" s="0" t="n">
         <v>0</v>
@@ -7668,7 +8686,7 @@
       <c r="K154" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L154" s="4" t="s">
+      <c r="L154" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M154" s="0" t="s">
@@ -7695,7 +8713,7 @@
         <v>18</v>
       </c>
       <c r="F155" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G155" s="0" t="n">
         <v>0</v>
@@ -7712,7 +8730,7 @@
       <c r="K155" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L155" s="4" t="s">
+      <c r="L155" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M155" s="0" t="s">
@@ -7722,44 +8740,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="B156" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C156" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="D156" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F156" s="0" t="s">
+      <c r="D156" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G156" s="0" t="n">
+      <c r="G156" s="3" t="n">
         <v>2878</v>
       </c>
-      <c r="H156" s="0" t="n">
+      <c r="H156" s="3" t="n">
         <v>1064.2</v>
       </c>
-      <c r="I156" s="0" t="n">
+      <c r="I156" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="J156" s="0" t="n">
+      <c r="J156" s="3" t="n">
         <v>1514</v>
       </c>
-      <c r="K156" s="0" t="n">
+      <c r="K156" s="3" t="n">
         <v>1.0088</v>
       </c>
       <c r="L156" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M156" s="0" t="n">
+      <c r="M156" s="3" t="n">
         <v>7.31</v>
       </c>
-      <c r="N156" s="0" t="n">
+      <c r="N156" s="3" t="n">
         <v>1.348</v>
       </c>
     </row>
@@ -7797,7 +8815,7 @@
       <c r="K157" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L157" s="4" t="s">
+      <c r="L157" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M157" s="0" t="s">
@@ -7841,7 +8859,7 @@
       <c r="K158" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L158" s="4" t="s">
+      <c r="L158" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M158" s="0" t="s">
@@ -7885,7 +8903,7 @@
       <c r="K159" s="0" t="n">
         <v>0.1977</v>
       </c>
-      <c r="L159" s="4" t="s">
+      <c r="L159" s="6" t="s">
         <v>132</v>
       </c>
       <c r="M159" s="0" t="n">
@@ -7929,7 +8947,7 @@
       <c r="K160" s="0" t="n">
         <v>0.04</v>
       </c>
-      <c r="L160" s="4" t="s">
+      <c r="L160" s="6" t="s">
         <v>122</v>
       </c>
       <c r="M160" s="0" t="n">
@@ -7973,7 +8991,7 @@
       <c r="K161" s="0" t="n">
         <v>0.0526</v>
       </c>
-      <c r="L161" s="4" t="s">
+      <c r="L161" s="6" t="s">
         <v>133</v>
       </c>
       <c r="M161" s="0" t="n">
@@ -8017,7 +9035,7 @@
       <c r="K162" s="0" t="n">
         <v>0.0123</v>
       </c>
-      <c r="L162" s="4" t="s">
+      <c r="L162" s="6" t="s">
         <v>118</v>
       </c>
       <c r="M162" s="0" t="n">
@@ -8044,7 +9062,7 @@
         <v>18</v>
       </c>
       <c r="F163" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G163" s="0" t="n">
         <v>57</v>
@@ -8061,7 +9079,7 @@
       <c r="K163" s="0" t="n">
         <v>0.02</v>
       </c>
-      <c r="L163" s="4" t="s">
+      <c r="L163" s="6" t="s">
         <v>134</v>
       </c>
       <c r="M163" s="0" t="n">
@@ -8088,7 +9106,7 @@
         <v>18</v>
       </c>
       <c r="F164" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G164" s="0" t="n">
         <v>1958</v>
@@ -8105,7 +9123,7 @@
       <c r="K164" s="0" t="n">
         <v>0.6863</v>
       </c>
-      <c r="L164" s="4" t="s">
+      <c r="L164" s="6" t="s">
         <v>135</v>
       </c>
       <c r="M164" s="0" t="n">
@@ -8132,7 +9150,7 @@
         <v>18</v>
       </c>
       <c r="F165" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G165" s="0" t="n">
         <v>0</v>
@@ -8149,7 +9167,7 @@
       <c r="K165" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L165" s="4" t="s">
+      <c r="L165" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M165" s="0" t="s">
@@ -8176,7 +9194,7 @@
         <v>18</v>
       </c>
       <c r="F166" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G166" s="0" t="n">
         <v>0</v>
@@ -8193,7 +9211,7 @@
       <c r="K166" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L166" s="4" t="s">
+      <c r="L166" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M166" s="0" t="s">
@@ -8203,44 +9221,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B167" s="5" t="s">
+      <c r="B167" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C167" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="D167" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F167" s="0" t="s">
+      <c r="D167" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G167" s="0" t="n">
+      <c r="G167" s="3" t="n">
         <v>2835</v>
       </c>
-      <c r="H167" s="0" t="n">
+      <c r="H167" s="3" t="n">
         <v>1076.91</v>
       </c>
-      <c r="I167" s="0" t="n">
+      <c r="I167" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="J167" s="0" t="n">
+      <c r="J167" s="3" t="n">
         <v>1514</v>
       </c>
-      <c r="K167" s="0" t="n">
+      <c r="K167" s="3" t="n">
         <v>0.9725</v>
       </c>
       <c r="L167" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M167" s="0" t="n">
+      <c r="M167" s="3" t="n">
         <v>7.78</v>
       </c>
-      <c r="N167" s="0" t="n">
+      <c r="N167" s="3" t="n">
         <v>1.562</v>
       </c>
     </row>
@@ -8278,7 +9296,7 @@
       <c r="K168" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L168" s="4" t="s">
+      <c r="L168" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M168" s="0" t="s">
@@ -8322,7 +9340,7 @@
       <c r="K169" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L169" s="4" t="s">
+      <c r="L169" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M169" s="0" t="s">
@@ -8366,7 +9384,7 @@
       <c r="K170" s="0" t="n">
         <v>0.1894</v>
       </c>
-      <c r="L170" s="4" t="s">
+      <c r="L170" s="6" t="s">
         <v>136</v>
       </c>
       <c r="M170" s="0" t="n">
@@ -8410,7 +9428,7 @@
       <c r="K171" s="0" t="n">
         <v>0.0367</v>
       </c>
-      <c r="L171" s="4" t="s">
+      <c r="L171" s="6" t="s">
         <v>137</v>
       </c>
       <c r="M171" s="0" t="n">
@@ -8454,7 +9472,7 @@
       <c r="K172" s="0" t="n">
         <v>0.0436</v>
       </c>
-      <c r="L172" s="4" t="s">
+      <c r="L172" s="6" t="s">
         <v>138</v>
       </c>
       <c r="M172" s="0" t="n">
@@ -8498,7 +9516,7 @@
       <c r="K173" s="0" t="n">
         <v>0.012</v>
       </c>
-      <c r="L173" s="4" t="s">
+      <c r="L173" s="6" t="s">
         <v>139</v>
       </c>
       <c r="M173" s="0" t="n">
@@ -8525,7 +9543,7 @@
         <v>18</v>
       </c>
       <c r="F174" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G174" s="0" t="n">
         <v>63</v>
@@ -8542,7 +9560,7 @@
       <c r="K174" s="0" t="n">
         <v>0.0216</v>
       </c>
-      <c r="L174" s="4" t="s">
+      <c r="L174" s="6" t="s">
         <v>140</v>
       </c>
       <c r="M174" s="0" t="n">
@@ -8569,7 +9587,7 @@
         <v>18</v>
       </c>
       <c r="F175" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G175" s="0" t="n">
         <v>1951</v>
@@ -8586,7 +9604,7 @@
       <c r="K175" s="0" t="n">
         <v>0.6693</v>
       </c>
-      <c r="L175" s="4" t="s">
+      <c r="L175" s="6" t="s">
         <v>141</v>
       </c>
       <c r="M175" s="0" t="n">
@@ -8613,7 +9631,7 @@
         <v>18</v>
       </c>
       <c r="F176" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G176" s="0" t="n">
         <v>0</v>
@@ -8630,7 +9648,7 @@
       <c r="K176" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L176" s="4" t="s">
+      <c r="L176" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M176" s="0" t="s">
@@ -8657,7 +9675,7 @@
         <v>18</v>
       </c>
       <c r="F177" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G177" s="0" t="n">
         <v>0</v>
@@ -8674,7 +9692,7 @@
       <c r="K177" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L177" s="4" t="s">
+      <c r="L177" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M177" s="0" t="s">
@@ -8684,44 +9702,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B178" s="5" t="s">
+      <c r="B178" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C178" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="D178" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F178" s="0" t="s">
+      <c r="D178" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F178" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G178" s="0" t="n">
+      <c r="G178" s="3" t="n">
         <v>2756</v>
       </c>
-      <c r="H178" s="0" t="n">
+      <c r="H178" s="3" t="n">
         <v>1105.34</v>
       </c>
-      <c r="I178" s="0" t="n">
+      <c r="I178" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="J178" s="0" t="n">
+      <c r="J178" s="3" t="n">
         <v>1514</v>
       </c>
-      <c r="K178" s="0" t="n">
+      <c r="K178" s="3" t="n">
         <v>0.9054</v>
       </c>
       <c r="L178" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M178" s="0" t="n">
+      <c r="M178" s="3" t="n">
         <v>7.63</v>
       </c>
-      <c r="N178" s="0" t="n">
+      <c r="N178" s="3" t="n">
         <v>2.533</v>
       </c>
     </row>
@@ -8759,7 +9777,7 @@
       <c r="K179" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L179" s="4" t="s">
+      <c r="L179" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M179" s="0" t="s">
@@ -8803,7 +9821,7 @@
       <c r="K180" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L180" s="4" t="s">
+      <c r="L180" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M180" s="0" t="s">
@@ -8847,7 +9865,7 @@
       <c r="K181" s="0" t="n">
         <v>0.1616</v>
       </c>
-      <c r="L181" s="4" t="s">
+      <c r="L181" s="6" t="s">
         <v>142</v>
       </c>
       <c r="M181" s="0" t="n">
@@ -8891,7 +9909,7 @@
       <c r="K182" s="0" t="n">
         <v>0.0325</v>
       </c>
-      <c r="L182" s="4" t="s">
+      <c r="L182" s="6" t="s">
         <v>143</v>
       </c>
       <c r="M182" s="0" t="n">
@@ -8935,7 +9953,7 @@
       <c r="K183" s="0" t="n">
         <v>0.0381</v>
       </c>
-      <c r="L183" s="4" t="s">
+      <c r="L183" s="6" t="s">
         <v>144</v>
       </c>
       <c r="M183" s="0" t="n">
@@ -8979,7 +9997,7 @@
       <c r="K184" s="0" t="n">
         <v>0.0108</v>
       </c>
-      <c r="L184" s="4" t="s">
+      <c r="L184" s="6" t="s">
         <v>145</v>
       </c>
       <c r="M184" s="0" t="n">
@@ -9006,7 +10024,7 @@
         <v>18</v>
       </c>
       <c r="F185" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G185" s="0" t="n">
         <v>66</v>
@@ -9023,7 +10041,7 @@
       <c r="K185" s="0" t="n">
         <v>0.0217</v>
       </c>
-      <c r="L185" s="4" t="s">
+      <c r="L185" s="6" t="s">
         <v>146</v>
       </c>
       <c r="M185" s="0" t="n">
@@ -9050,7 +10068,7 @@
         <v>18</v>
       </c>
       <c r="F186" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G186" s="0" t="n">
         <v>1950</v>
@@ -9067,7 +10085,7 @@
       <c r="K186" s="0" t="n">
         <v>0.6406</v>
       </c>
-      <c r="L186" s="4" t="s">
+      <c r="L186" s="6" t="s">
         <v>147</v>
       </c>
       <c r="M186" s="0" t="n">
@@ -9094,7 +10112,7 @@
         <v>18</v>
       </c>
       <c r="F187" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G187" s="0" t="n">
         <v>0</v>
@@ -9111,7 +10129,7 @@
       <c r="K187" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L187" s="4" t="s">
+      <c r="L187" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M187" s="0" t="s">
@@ -9138,7 +10156,7 @@
         <v>18</v>
       </c>
       <c r="F188" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G188" s="0" t="n">
         <v>0</v>
@@ -9155,7 +10173,7 @@
       <c r="K188" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L188" s="4" t="s">
+      <c r="L188" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M188" s="0" t="s">
@@ -9165,44 +10183,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B189" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C189" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="D189" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F189" s="0" t="s">
+      <c r="D189" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F189" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G189" s="0" t="n">
+      <c r="G189" s="3" t="n">
         <v>2829</v>
       </c>
-      <c r="H189" s="0" t="n">
+      <c r="H189" s="3" t="n">
         <v>1080.71</v>
       </c>
-      <c r="I189" s="0" t="n">
+      <c r="I189" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="J189" s="0" t="n">
+      <c r="J189" s="3" t="n">
         <v>1514</v>
       </c>
-      <c r="K189" s="0" t="n">
+      <c r="K189" s="3" t="n">
         <v>0.8318</v>
       </c>
       <c r="L189" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M189" s="0" t="n">
+      <c r="M189" s="3" t="n">
         <v>6.68</v>
       </c>
-      <c r="N189" s="0" t="n">
+      <c r="N189" s="3" t="n">
         <v>2.155</v>
       </c>
     </row>
@@ -9240,7 +10258,7 @@
       <c r="K190" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L190" s="4" t="s">
+      <c r="L190" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M190" s="0" t="s">
@@ -9284,7 +10302,7 @@
       <c r="K191" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L191" s="4" t="s">
+      <c r="L191" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M191" s="0" t="s">
@@ -9328,7 +10346,7 @@
       <c r="K192" s="0" t="n">
         <v>0.1485</v>
       </c>
-      <c r="L192" s="4" t="s">
+      <c r="L192" s="6" t="s">
         <v>142</v>
       </c>
       <c r="M192" s="0" t="n">
@@ -9372,7 +10390,7 @@
       <c r="K193" s="0" t="n">
         <v>0.0347</v>
       </c>
-      <c r="L193" s="4" t="s">
+      <c r="L193" s="6" t="s">
         <v>148</v>
       </c>
       <c r="M193" s="0" t="n">
@@ -9416,7 +10434,7 @@
       <c r="K194" s="0" t="n">
         <v>0.045</v>
       </c>
-      <c r="L194" s="4" t="s">
+      <c r="L194" s="6" t="s">
         <v>149</v>
       </c>
       <c r="M194" s="0" t="n">
@@ -9460,7 +10478,7 @@
       <c r="K195" s="0" t="n">
         <v>0.0115</v>
       </c>
-      <c r="L195" s="4" t="s">
+      <c r="L195" s="6" t="s">
         <v>150</v>
       </c>
       <c r="M195" s="0" t="n">
@@ -9487,7 +10505,7 @@
         <v>18</v>
       </c>
       <c r="F196" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G196" s="0" t="n">
         <v>64</v>
@@ -9504,7 +10522,7 @@
       <c r="K196" s="0" t="n">
         <v>0.0188</v>
       </c>
-      <c r="L196" s="4" t="s">
+      <c r="L196" s="6" t="s">
         <v>151</v>
       </c>
       <c r="M196" s="0" t="n">
@@ -9531,7 +10549,7 @@
         <v>18</v>
       </c>
       <c r="F197" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G197" s="0" t="n">
         <v>1950</v>
@@ -9548,7 +10566,7 @@
       <c r="K197" s="0" t="n">
         <v>0.5733</v>
       </c>
-      <c r="L197" s="4" t="s">
+      <c r="L197" s="6" t="s">
         <v>152</v>
       </c>
       <c r="M197" s="0" t="n">
@@ -9575,7 +10593,7 @@
         <v>18</v>
       </c>
       <c r="F198" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G198" s="0" t="n">
         <v>0</v>
@@ -9592,7 +10610,7 @@
       <c r="K198" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L198" s="4" t="s">
+      <c r="L198" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M198" s="0" t="s">
@@ -9619,7 +10637,7 @@
         <v>18</v>
       </c>
       <c r="F199" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G199" s="0" t="n">
         <v>0</v>
@@ -9636,7 +10654,7 @@
       <c r="K199" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L199" s="4" t="s">
+      <c r="L199" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M199" s="0" t="s">
@@ -9646,44 +10664,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B200" s="5" t="s">
+      <c r="B200" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C200" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D200" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F200" s="0" t="s">
+      <c r="D200" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F200" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G200" s="0" t="n">
+      <c r="G200" s="3" t="n">
         <v>2854</v>
       </c>
-      <c r="H200" s="0" t="n">
+      <c r="H200" s="3" t="n">
         <v>1071.43</v>
       </c>
-      <c r="I200" s="0" t="n">
+      <c r="I200" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="J200" s="0" t="n">
+      <c r="J200" s="3" t="n">
         <v>1514</v>
       </c>
-      <c r="K200" s="0" t="n">
+      <c r="K200" s="3" t="n">
         <v>0.8814</v>
       </c>
       <c r="L200" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M200" s="0" t="n">
+      <c r="M200" s="3" t="n">
         <v>7.56</v>
       </c>
-      <c r="N200" s="0" t="n">
+      <c r="N200" s="3" t="n">
         <v>1.766</v>
       </c>
     </row>
@@ -9721,7 +10739,7 @@
       <c r="K201" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L201" s="4" t="s">
+      <c r="L201" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M201" s="0" t="s">
@@ -9765,7 +10783,7 @@
       <c r="K202" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L202" s="4" t="s">
+      <c r="L202" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M202" s="0" t="s">
@@ -9809,7 +10827,7 @@
       <c r="K203" s="0" t="n">
         <v>0.1655</v>
       </c>
-      <c r="L203" s="4" t="s">
+      <c r="L203" s="6" t="s">
         <v>153</v>
       </c>
       <c r="M203" s="0" t="n">
@@ -9853,7 +10871,7 @@
       <c r="K204" s="0" t="n">
         <v>0.0371</v>
       </c>
-      <c r="L204" s="4" t="s">
+      <c r="L204" s="6" t="s">
         <v>154</v>
       </c>
       <c r="M204" s="0" t="n">
@@ -9897,7 +10915,7 @@
       <c r="K205" s="0" t="n">
         <v>0.0445</v>
       </c>
-      <c r="L205" s="4" t="s">
+      <c r="L205" s="6" t="s">
         <v>155</v>
       </c>
       <c r="M205" s="0" t="n">
@@ -9941,7 +10959,7 @@
       <c r="K206" s="0" t="n">
         <v>0.012</v>
       </c>
-      <c r="L206" s="4" t="s">
+      <c r="L206" s="6" t="s">
         <v>156</v>
       </c>
       <c r="M206" s="0" t="n">
@@ -9968,7 +10986,7 @@
         <v>18</v>
       </c>
       <c r="F207" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G207" s="0" t="n">
         <v>65</v>
@@ -9985,7 +11003,7 @@
       <c r="K207" s="0" t="n">
         <v>0.0201</v>
       </c>
-      <c r="L207" s="4" t="s">
+      <c r="L207" s="6" t="s">
         <v>157</v>
       </c>
       <c r="M207" s="0" t="n">
@@ -10012,7 +11030,7 @@
         <v>18</v>
       </c>
       <c r="F208" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G208" s="0" t="n">
         <v>1950</v>
@@ -10029,7 +11047,7 @@
       <c r="K208" s="0" t="n">
         <v>0.6022</v>
       </c>
-      <c r="L208" s="4" t="s">
+      <c r="L208" s="6" t="s">
         <v>126</v>
       </c>
       <c r="M208" s="0" t="n">
@@ -10056,7 +11074,7 @@
         <v>18</v>
       </c>
       <c r="F209" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G209" s="0" t="n">
         <v>0</v>
@@ -10073,7 +11091,7 @@
       <c r="K209" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L209" s="4" t="s">
+      <c r="L209" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M209" s="0" t="s">
@@ -10100,7 +11118,7 @@
         <v>18</v>
       </c>
       <c r="F210" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G210" s="0" t="n">
         <v>0</v>
@@ -10117,7 +11135,7 @@
       <c r="K210" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L210" s="4" t="s">
+      <c r="L210" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M210" s="0" t="s">
@@ -10127,44 +11145,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B211" s="5" t="s">
+      <c r="B211" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C211" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="D211" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F211" s="0" t="s">
+      <c r="D211" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F211" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G211" s="0" t="n">
+      <c r="G211" s="3" t="n">
         <v>2829</v>
       </c>
-      <c r="H211" s="0" t="n">
+      <c r="H211" s="3" t="n">
         <v>1079.19</v>
       </c>
-      <c r="I211" s="0" t="n">
+      <c r="I211" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="J211" s="0" t="n">
+      <c r="J211" s="3" t="n">
         <v>1514</v>
       </c>
-      <c r="K211" s="0" t="n">
+      <c r="K211" s="3" t="n">
         <v>0.8867</v>
       </c>
       <c r="L211" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M211" s="0" t="n">
+      <c r="M211" s="3" t="n">
         <v>6.72</v>
       </c>
-      <c r="N211" s="0" t="n">
+      <c r="N211" s="3" t="n">
         <v>2.34</v>
       </c>
     </row>
@@ -10202,7 +11220,7 @@
       <c r="K212" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L212" s="4" t="s">
+      <c r="L212" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M212" s="0" t="s">
@@ -10246,7 +11264,7 @@
       <c r="K213" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L213" s="4" t="s">
+      <c r="L213" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M213" s="0" t="s">
@@ -10290,7 +11308,7 @@
       <c r="K214" s="0" t="n">
         <v>0.174</v>
       </c>
-      <c r="L214" s="4" t="s">
+      <c r="L214" s="6" t="s">
         <v>158</v>
       </c>
       <c r="M214" s="0" t="n">
@@ -10334,7 +11352,7 @@
       <c r="K215" s="0" t="n">
         <v>0.0332</v>
       </c>
-      <c r="L215" s="4" t="s">
+      <c r="L215" s="6" t="s">
         <v>159</v>
       </c>
       <c r="M215" s="0" t="n">
@@ -10378,7 +11396,7 @@
       <c r="K216" s="0" t="n">
         <v>0.0376</v>
       </c>
-      <c r="L216" s="4" t="s">
+      <c r="L216" s="6" t="s">
         <v>160</v>
       </c>
       <c r="M216" s="0" t="n">
@@ -10422,7 +11440,7 @@
       <c r="K217" s="0" t="n">
         <v>0.0113</v>
       </c>
-      <c r="L217" s="4" t="s">
+      <c r="L217" s="6" t="s">
         <v>161</v>
       </c>
       <c r="M217" s="0" t="n">
@@ -10449,7 +11467,7 @@
         <v>18</v>
       </c>
       <c r="F218" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G218" s="0" t="n">
         <v>57</v>
@@ -10466,7 +11484,7 @@
       <c r="K218" s="0" t="n">
         <v>0.0179</v>
       </c>
-      <c r="L218" s="4" t="s">
+      <c r="L218" s="6" t="s">
         <v>162</v>
       </c>
       <c r="M218" s="0" t="n">
@@ -10493,7 +11511,7 @@
         <v>18</v>
       </c>
       <c r="F219" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G219" s="0" t="n">
         <v>1955</v>
@@ -10510,7 +11528,7 @@
       <c r="K219" s="0" t="n">
         <v>0.6128</v>
       </c>
-      <c r="L219" s="4" t="s">
+      <c r="L219" s="6" t="s">
         <v>163</v>
       </c>
       <c r="M219" s="0" t="n">
@@ -10537,7 +11555,7 @@
         <v>18</v>
       </c>
       <c r="F220" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G220" s="0" t="n">
         <v>0</v>
@@ -10554,7 +11572,7 @@
       <c r="K220" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L220" s="4" t="s">
+      <c r="L220" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M220" s="0" t="s">
@@ -10581,7 +11599,7 @@
         <v>18</v>
       </c>
       <c r="F221" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G221" s="0" t="n">
         <v>0</v>
@@ -10598,7 +11616,7 @@
       <c r="K221" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L221" s="4" t="s">
+      <c r="L221" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M221" s="0" t="s">
@@ -10608,44 +11626,44 @@
         <v>20</v>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B222" s="5" t="s">
+      <c r="B222" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C222" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="D222" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F222" s="0" t="s">
+      <c r="D222" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F222" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G222" s="0" t="n">
+      <c r="G222" s="3" t="n">
         <v>2111</v>
       </c>
-      <c r="H222" s="0" t="n">
+      <c r="H222" s="3" t="n">
         <v>1648.15</v>
       </c>
-      <c r="I222" s="0" t="n">
+      <c r="I222" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="J222" s="0" t="n">
+      <c r="J222" s="3" t="n">
         <v>36556</v>
       </c>
-      <c r="K222" s="0" t="n">
+      <c r="K222" s="3" t="n">
         <v>0.1468</v>
       </c>
       <c r="L222" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M222" s="0" t="n">
+      <c r="M222" s="3" t="n">
         <v>1.81</v>
       </c>
-      <c r="N222" s="0" t="n">
+      <c r="N222" s="3" t="n">
         <v>9.195</v>
       </c>
     </row>
@@ -10683,7 +11701,7 @@
       <c r="K223" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L223" s="4" t="s">
+      <c r="L223" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M223" s="0" t="s">
@@ -10727,7 +11745,7 @@
       <c r="K224" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L224" s="4" t="s">
+      <c r="L224" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M224" s="0" t="s">
@@ -10771,7 +11789,7 @@
       <c r="K225" s="0" t="n">
         <v>0.0703</v>
       </c>
-      <c r="L225" s="4" t="s">
+      <c r="L225" s="6" t="s">
         <v>165</v>
       </c>
       <c r="M225" s="0" t="n">
@@ -10815,7 +11833,7 @@
       <c r="K226" s="0" t="n">
         <v>0.0003</v>
       </c>
-      <c r="L226" s="4" t="s">
+      <c r="L226" s="6" t="s">
         <v>166</v>
       </c>
       <c r="M226" s="0" t="n">
@@ -10859,7 +11877,7 @@
       <c r="K227" s="0" t="n">
         <v>0.0003</v>
       </c>
-      <c r="L227" s="4" t="s">
+      <c r="L227" s="6" t="s">
         <v>166</v>
       </c>
       <c r="M227" s="0" t="n">
@@ -10903,7 +11921,7 @@
       <c r="K228" s="0" t="n">
         <v>0.0116</v>
       </c>
-      <c r="L228" s="4" t="s">
+      <c r="L228" s="6" t="s">
         <v>167</v>
       </c>
       <c r="M228" s="0" t="n">
@@ -10930,7 +11948,7 @@
         <v>18</v>
       </c>
       <c r="F229" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G229" s="0" t="n">
         <v>74</v>
@@ -10947,7 +11965,7 @@
       <c r="K229" s="0" t="n">
         <v>0.0051</v>
       </c>
-      <c r="L229" s="4" t="s">
+      <c r="L229" s="6" t="s">
         <v>168</v>
       </c>
       <c r="M229" s="0" t="n">
@@ -10974,7 +11992,7 @@
         <v>18</v>
       </c>
       <c r="F230" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G230" s="0" t="n">
         <v>266</v>
@@ -10991,7 +12009,7 @@
       <c r="K230" s="0" t="n">
         <v>0.0185</v>
       </c>
-      <c r="L230" s="4" t="s">
+      <c r="L230" s="6" t="s">
         <v>169</v>
       </c>
       <c r="M230" s="0" t="n">
@@ -11018,7 +12036,7 @@
         <v>18</v>
       </c>
       <c r="F231" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G231" s="0" t="n">
         <v>399</v>
@@ -11035,7 +12053,7 @@
       <c r="K231" s="0" t="n">
         <v>0.0277</v>
       </c>
-      <c r="L231" s="4" t="s">
+      <c r="L231" s="6" t="s">
         <v>170</v>
       </c>
       <c r="M231" s="0" t="n">
@@ -11062,7 +12080,7 @@
         <v>18</v>
       </c>
       <c r="F232" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G232" s="0" t="n">
         <v>184</v>
@@ -11079,7 +12097,7 @@
       <c r="K232" s="0" t="n">
         <v>0.0128</v>
       </c>
-      <c r="L232" s="4" t="s">
+      <c r="L232" s="6" t="s">
         <v>171</v>
       </c>
       <c r="M232" s="0" t="n">
@@ -11089,44 +12107,44 @@
         <v>7.807</v>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B233" s="5" t="s">
+      <c r="B233" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C233" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D233" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F233" s="0" t="s">
+      <c r="D233" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F233" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G233" s="0" t="n">
+      <c r="G233" s="3" t="n">
         <v>2034</v>
       </c>
-      <c r="H233" s="0" t="n">
+      <c r="H233" s="3" t="n">
         <v>1652.48</v>
       </c>
-      <c r="I233" s="0" t="n">
+      <c r="I233" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="J233" s="0" t="n">
+      <c r="J233" s="3" t="n">
         <v>17576</v>
       </c>
-      <c r="K233" s="0" t="n">
+      <c r="K233" s="3" t="n">
         <v>0.1499</v>
       </c>
       <c r="L233" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M233" s="0" t="n">
+      <c r="M233" s="3" t="n">
         <v>1.37</v>
       </c>
-      <c r="N233" s="0" t="n">
+      <c r="N233" s="3" t="n">
         <v>6.286</v>
       </c>
     </row>
@@ -11164,7 +12182,7 @@
       <c r="K234" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L234" s="4" t="s">
+      <c r="L234" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M234" s="0" t="s">
@@ -11208,7 +12226,7 @@
       <c r="K235" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L235" s="4" t="s">
+      <c r="L235" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M235" s="0" t="s">
@@ -11252,7 +12270,7 @@
       <c r="K236" s="0" t="n">
         <v>0.0714</v>
       </c>
-      <c r="L236" s="4" t="s">
+      <c r="L236" s="6" t="s">
         <v>172</v>
       </c>
       <c r="M236" s="0" t="n">
@@ -11296,7 +12314,7 @@
       <c r="K237" s="0" t="n">
         <v>0.0001</v>
       </c>
-      <c r="L237" s="4" t="s">
+      <c r="L237" s="6" t="s">
         <v>173</v>
       </c>
       <c r="M237" s="0" t="n">
@@ -11340,7 +12358,7 @@
       <c r="K238" s="0" t="n">
         <v>0.0002</v>
       </c>
-      <c r="L238" s="4" t="s">
+      <c r="L238" s="6" t="s">
         <v>174</v>
       </c>
       <c r="M238" s="0" t="n">
@@ -11384,7 +12402,7 @@
       <c r="K239" s="0" t="n">
         <v>0.0133</v>
       </c>
-      <c r="L239" s="4" t="s">
+      <c r="L239" s="6" t="s">
         <v>175</v>
       </c>
       <c r="M239" s="0" t="n">
@@ -11411,7 +12429,7 @@
         <v>18</v>
       </c>
       <c r="F240" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G240" s="0" t="n">
         <v>53</v>
@@ -11428,7 +12446,7 @@
       <c r="K240" s="0" t="n">
         <v>0.0039</v>
       </c>
-      <c r="L240" s="4" t="s">
+      <c r="L240" s="6" t="s">
         <v>176</v>
       </c>
       <c r="M240" s="0" t="n">
@@ -11455,7 +12473,7 @@
         <v>18</v>
       </c>
       <c r="F241" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G241" s="0" t="n">
         <v>223</v>
@@ -11472,7 +12490,7 @@
       <c r="K241" s="0" t="n">
         <v>0.0164</v>
       </c>
-      <c r="L241" s="4" t="s">
+      <c r="L241" s="6" t="s">
         <v>177</v>
       </c>
       <c r="M241" s="0" t="n">
@@ -11499,7 +12517,7 @@
         <v>18</v>
       </c>
       <c r="F242" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G242" s="0" t="n">
         <v>441</v>
@@ -11516,7 +12534,7 @@
       <c r="K242" s="0" t="n">
         <v>0.0325</v>
       </c>
-      <c r="L242" s="4" t="s">
+      <c r="L242" s="6" t="s">
         <v>178</v>
       </c>
       <c r="M242" s="0" t="n">
@@ -11543,7 +12561,7 @@
         <v>18</v>
       </c>
       <c r="F243" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G243" s="0" t="n">
         <v>163</v>
@@ -11560,7 +12578,7 @@
       <c r="K243" s="0" t="n">
         <v>0.012</v>
       </c>
-      <c r="L243" s="4" t="s">
+      <c r="L243" s="6" t="s">
         <v>179</v>
       </c>
       <c r="M243" s="0" t="n">
@@ -11570,44 +12588,44 @@
         <v>6.896</v>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B244" s="5" t="s">
+      <c r="B244" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C244" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="D244" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F244" s="0" t="s">
+      <c r="D244" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F244" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G244" s="0" t="n">
+      <c r="G244" s="3" t="n">
         <v>2004</v>
       </c>
-      <c r="H244" s="0" t="n">
+      <c r="H244" s="3" t="n">
         <v>1663.72</v>
       </c>
-      <c r="I244" s="0" t="n">
+      <c r="I244" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="J244" s="0" t="n">
+      <c r="J244" s="3" t="n">
         <v>21956</v>
       </c>
-      <c r="K244" s="0" t="n">
+      <c r="K244" s="3" t="n">
         <v>0.2255</v>
       </c>
       <c r="L244" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M244" s="0" t="n">
+      <c r="M244" s="3" t="n">
         <v>1.35</v>
       </c>
-      <c r="N244" s="0" t="n">
+      <c r="N244" s="3" t="n">
         <v>6.422</v>
       </c>
     </row>
@@ -11645,7 +12663,7 @@
       <c r="K245" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L245" s="4" t="s">
+      <c r="L245" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M245" s="0" t="s">
@@ -11689,7 +12707,7 @@
       <c r="K246" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L246" s="4" t="s">
+      <c r="L246" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M246" s="0" t="s">
@@ -11733,7 +12751,7 @@
       <c r="K247" s="0" t="n">
         <v>0.106</v>
       </c>
-      <c r="L247" s="4" t="s">
+      <c r="L247" s="6" t="s">
         <v>180</v>
       </c>
       <c r="M247" s="0" t="n">
@@ -11777,7 +12795,7 @@
       <c r="K248" s="0" t="n">
         <v>0.0003</v>
       </c>
-      <c r="L248" s="4" t="s">
+      <c r="L248" s="6" t="s">
         <v>174</v>
       </c>
       <c r="M248" s="0" t="n">
@@ -11821,7 +12839,7 @@
       <c r="K249" s="0" t="n">
         <v>0.0006</v>
       </c>
-      <c r="L249" s="4" t="s">
+      <c r="L249" s="6" t="s">
         <v>181</v>
       </c>
       <c r="M249" s="0" t="n">
@@ -11865,7 +12883,7 @@
       <c r="K250" s="0" t="n">
         <v>0.0168</v>
       </c>
-      <c r="L250" s="4" t="s">
+      <c r="L250" s="6" t="s">
         <v>182</v>
       </c>
       <c r="M250" s="0" t="n">
@@ -11892,7 +12910,7 @@
         <v>18</v>
       </c>
       <c r="F251" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G251" s="0" t="n">
         <v>61</v>
@@ -11909,7 +12927,7 @@
       <c r="K251" s="0" t="n">
         <v>0.0069</v>
       </c>
-      <c r="L251" s="4" t="s">
+      <c r="L251" s="6" t="s">
         <v>183</v>
       </c>
       <c r="M251" s="0" t="n">
@@ -11936,7 +12954,7 @@
         <v>18</v>
       </c>
       <c r="F252" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G252" s="0" t="n">
         <v>246</v>
@@ -11953,7 +12971,7 @@
       <c r="K252" s="0" t="n">
         <v>0.0277</v>
       </c>
-      <c r="L252" s="4" t="s">
+      <c r="L252" s="6" t="s">
         <v>184</v>
       </c>
       <c r="M252" s="0" t="n">
@@ -11980,7 +12998,7 @@
         <v>18</v>
       </c>
       <c r="F253" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G253" s="0" t="n">
         <v>446</v>
@@ -11997,7 +13015,7 @@
       <c r="K253" s="0" t="n">
         <v>0.0502</v>
       </c>
-      <c r="L253" s="4" t="s">
+      <c r="L253" s="6" t="s">
         <v>185</v>
       </c>
       <c r="M253" s="0" t="n">
@@ -12024,7 +13042,7 @@
         <v>18</v>
       </c>
       <c r="F254" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G254" s="0" t="n">
         <v>152</v>
@@ -12041,7 +13059,7 @@
       <c r="K254" s="0" t="n">
         <v>0.0171</v>
       </c>
-      <c r="L254" s="4" t="s">
+      <c r="L254" s="6" t="s">
         <v>186</v>
       </c>
       <c r="M254" s="0" t="n">
@@ -12051,44 +13069,44 @@
         <v>6.423</v>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B255" s="5" t="s">
+      <c r="B255" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C255" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="D255" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F255" s="0" t="s">
+      <c r="D255" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F255" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G255" s="0" t="n">
+      <c r="G255" s="3" t="n">
         <v>2014</v>
       </c>
-      <c r="H255" s="0" t="n">
+      <c r="H255" s="3" t="n">
         <v>1640.8</v>
       </c>
-      <c r="I255" s="0" t="n">
+      <c r="I255" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="J255" s="0" t="n">
+      <c r="J255" s="3" t="n">
         <v>31841</v>
       </c>
-      <c r="K255" s="0" t="n">
+      <c r="K255" s="3" t="n">
         <v>0.2017</v>
       </c>
       <c r="L255" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M255" s="0" t="n">
+      <c r="M255" s="3" t="n">
         <v>1.24</v>
       </c>
-      <c r="N255" s="0" t="n">
+      <c r="N255" s="3" t="n">
         <v>6.185</v>
       </c>
     </row>
@@ -12126,7 +13144,7 @@
       <c r="K256" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L256" s="4" t="s">
+      <c r="L256" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M256" s="0" t="s">
@@ -12170,7 +13188,7 @@
       <c r="K257" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L257" s="4" t="s">
+      <c r="L257" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M257" s="0" t="s">
@@ -12214,7 +13232,7 @@
       <c r="K258" s="0" t="n">
         <v>0.1004</v>
       </c>
-      <c r="L258" s="4" t="s">
+      <c r="L258" s="6" t="s">
         <v>187</v>
       </c>
       <c r="M258" s="0" t="n">
@@ -12258,7 +13276,7 @@
       <c r="K259" s="0" t="n">
         <v>0.0003</v>
       </c>
-      <c r="L259" s="4" t="s">
+      <c r="L259" s="6" t="s">
         <v>174</v>
       </c>
       <c r="M259" s="0" t="n">
@@ -12302,7 +13320,7 @@
       <c r="K260" s="0" t="n">
         <v>0.0007</v>
       </c>
-      <c r="L260" s="4" t="s">
+      <c r="L260" s="6" t="s">
         <v>188</v>
       </c>
       <c r="M260" s="0" t="n">
@@ -12346,7 +13364,7 @@
       <c r="K261" s="0" t="n">
         <v>0.0154</v>
       </c>
-      <c r="L261" s="4" t="s">
+      <c r="L261" s="6" t="s">
         <v>189</v>
       </c>
       <c r="M261" s="0" t="n">
@@ -12373,7 +13391,7 @@
         <v>18</v>
       </c>
       <c r="F262" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G262" s="0" t="n">
         <v>58</v>
@@ -12390,7 +13408,7 @@
       <c r="K262" s="0" t="n">
         <v>0.0058</v>
       </c>
-      <c r="L262" s="4" t="s">
+      <c r="L262" s="6" t="s">
         <v>190</v>
       </c>
       <c r="M262" s="0" t="n">
@@ -12417,7 +13435,7 @@
         <v>18</v>
       </c>
       <c r="F263" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G263" s="0" t="n">
         <v>213</v>
@@ -12434,7 +13452,7 @@
       <c r="K263" s="0" t="n">
         <v>0.0213</v>
       </c>
-      <c r="L263" s="4" t="s">
+      <c r="L263" s="6" t="s">
         <v>191</v>
       </c>
       <c r="M263" s="0" t="n">
@@ -12461,7 +13479,7 @@
         <v>18</v>
       </c>
       <c r="F264" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G264" s="0" t="n">
         <v>397</v>
@@ -12478,7 +13496,7 @@
       <c r="K264" s="0" t="n">
         <v>0.0398</v>
       </c>
-      <c r="L264" s="4" t="s">
+      <c r="L264" s="6" t="s">
         <v>192</v>
       </c>
       <c r="M264" s="0" t="n">
@@ -12505,7 +13523,7 @@
         <v>18</v>
       </c>
       <c r="F265" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G265" s="0" t="n">
         <v>179</v>
@@ -12522,7 +13540,7 @@
       <c r="K265" s="0" t="n">
         <v>0.0179</v>
       </c>
-      <c r="L265" s="4" t="s">
+      <c r="L265" s="6" t="s">
         <v>193</v>
       </c>
       <c r="M265" s="0" t="n">
@@ -12532,44 +13550,44 @@
         <v>6.803</v>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B266" s="5" t="s">
+      <c r="B266" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C266" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="D266" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F266" s="0" t="s">
+      <c r="D266" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F266" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G266" s="0" t="n">
+      <c r="G266" s="3" t="n">
         <v>2158</v>
       </c>
-      <c r="H266" s="0" t="n">
+      <c r="H266" s="3" t="n">
         <v>1549</v>
       </c>
-      <c r="I266" s="0" t="n">
+      <c r="I266" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="J266" s="0" t="n">
+      <c r="J266" s="3" t="n">
         <v>17576</v>
       </c>
-      <c r="K266" s="0" t="n">
+      <c r="K266" s="3" t="n">
         <v>0.1695</v>
       </c>
       <c r="L266" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M266" s="0" t="n">
+      <c r="M266" s="3" t="n">
         <v>1.4</v>
       </c>
-      <c r="N266" s="0" t="n">
+      <c r="N266" s="3" t="n">
         <v>6.317</v>
       </c>
     </row>
@@ -12607,7 +13625,7 @@
       <c r="K267" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L267" s="4" t="s">
+      <c r="L267" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M267" s="0" t="s">
@@ -12651,7 +13669,7 @@
       <c r="K268" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L268" s="4" t="s">
+      <c r="L268" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M268" s="0" t="s">
@@ -12695,7 +13713,7 @@
       <c r="K269" s="0" t="n">
         <v>0.0823</v>
       </c>
-      <c r="L269" s="4" t="s">
+      <c r="L269" s="6" t="s">
         <v>194</v>
       </c>
       <c r="M269" s="0" t="n">
@@ -12739,7 +13757,7 @@
       <c r="K270" s="0" t="n">
         <v>0.0002</v>
       </c>
-      <c r="L270" s="4" t="s">
+      <c r="L270" s="6" t="s">
         <v>195</v>
       </c>
       <c r="M270" s="0" t="n">
@@ -12783,7 +13801,7 @@
       <c r="K271" s="0" t="n">
         <v>0.0003</v>
       </c>
-      <c r="L271" s="4" t="s">
+      <c r="L271" s="6" t="s">
         <v>196</v>
       </c>
       <c r="M271" s="0" t="n">
@@ -12827,7 +13845,7 @@
       <c r="K272" s="0" t="n">
         <v>0.0119</v>
       </c>
-      <c r="L272" s="4" t="s">
+      <c r="L272" s="6" t="s">
         <v>197</v>
       </c>
       <c r="M272" s="0" t="n">
@@ -12854,7 +13872,7 @@
         <v>18</v>
       </c>
       <c r="F273" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G273" s="0" t="n">
         <v>59</v>
@@ -12871,7 +13889,7 @@
       <c r="K273" s="0" t="n">
         <v>0.0046</v>
       </c>
-      <c r="L273" s="4" t="s">
+      <c r="L273" s="6" t="s">
         <v>198</v>
       </c>
       <c r="M273" s="0" t="n">
@@ -12898,7 +13916,7 @@
         <v>18</v>
       </c>
       <c r="F274" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G274" s="0" t="n">
         <v>282</v>
@@ -12915,7 +13933,7 @@
       <c r="K274" s="0" t="n">
         <v>0.0222</v>
       </c>
-      <c r="L274" s="4" t="s">
+      <c r="L274" s="6" t="s">
         <v>199</v>
       </c>
       <c r="M274" s="0" t="n">
@@ -12942,7 +13960,7 @@
         <v>18</v>
       </c>
       <c r="F275" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G275" s="0" t="n">
         <v>475</v>
@@ -12959,7 +13977,7 @@
       <c r="K275" s="0" t="n">
         <v>0.0373</v>
       </c>
-      <c r="L275" s="4" t="s">
+      <c r="L275" s="6" t="s">
         <v>200</v>
       </c>
       <c r="M275" s="0" t="n">
@@ -12986,7 +14004,7 @@
         <v>18</v>
       </c>
       <c r="F276" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G276" s="0" t="n">
         <v>135</v>
@@ -13003,7 +14021,7 @@
       <c r="K276" s="0" t="n">
         <v>0.0106</v>
       </c>
-      <c r="L276" s="4" t="s">
+      <c r="L276" s="6" t="s">
         <v>201</v>
       </c>
       <c r="M276" s="0" t="n">
@@ -13013,44 +14031,44 @@
         <v>5.091</v>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B277" s="5" t="s">
+      <c r="B277" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C277" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="D277" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F277" s="0" t="s">
+      <c r="D277" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F277" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G277" s="0" t="n">
+      <c r="G277" s="3" t="n">
         <v>2272</v>
       </c>
-      <c r="H277" s="0" t="n">
+      <c r="H277" s="3" t="n">
         <v>1478.69</v>
       </c>
-      <c r="I277" s="0" t="n">
+      <c r="I277" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="J277" s="0" t="n">
+      <c r="J277" s="3" t="n">
         <v>24876</v>
       </c>
-      <c r="K277" s="0" t="n">
+      <c r="K277" s="3" t="n">
         <v>0.1318</v>
       </c>
       <c r="L277" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M277" s="0" t="n">
+      <c r="M277" s="3" t="n">
         <v>1.21</v>
       </c>
-      <c r="N277" s="0" t="n">
+      <c r="N277" s="3" t="n">
         <v>16.747</v>
       </c>
     </row>
@@ -13088,7 +14106,7 @@
       <c r="K278" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L278" s="4" t="s">
+      <c r="L278" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M278" s="0" t="s">
@@ -13132,7 +14150,7 @@
       <c r="K279" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L279" s="4" t="s">
+      <c r="L279" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M279" s="0" t="s">
@@ -13176,7 +14194,7 @@
       <c r="K280" s="0" t="n">
         <v>0.0642</v>
       </c>
-      <c r="L280" s="4" t="s">
+      <c r="L280" s="6" t="s">
         <v>202</v>
       </c>
       <c r="M280" s="0" t="n">
@@ -13220,7 +14238,7 @@
       <c r="K281" s="0" t="n">
         <v>0.0002</v>
       </c>
-      <c r="L281" s="4" t="s">
+      <c r="L281" s="6" t="s">
         <v>203</v>
       </c>
       <c r="M281" s="0" t="n">
@@ -13264,7 +14282,7 @@
       <c r="K282" s="0" t="n">
         <v>0.0006</v>
       </c>
-      <c r="L282" s="4" t="s">
+      <c r="L282" s="6" t="s">
         <v>204</v>
       </c>
       <c r="M282" s="0" t="n">
@@ -13308,7 +14326,7 @@
       <c r="K283" s="0" t="n">
         <v>0.0125</v>
       </c>
-      <c r="L283" s="4" t="s">
+      <c r="L283" s="6" t="s">
         <v>205</v>
       </c>
       <c r="M283" s="0" t="n">
@@ -13335,7 +14353,7 @@
         <v>18</v>
       </c>
       <c r="F284" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G284" s="0" t="n">
         <v>73</v>
@@ -13352,7 +14370,7 @@
       <c r="K284" s="0" t="n">
         <v>0.0042</v>
       </c>
-      <c r="L284" s="4" t="s">
+      <c r="L284" s="6" t="s">
         <v>73</v>
       </c>
       <c r="M284" s="0" t="n">
@@ -13379,7 +14397,7 @@
         <v>18</v>
       </c>
       <c r="F285" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G285" s="0" t="n">
         <v>221</v>
@@ -13396,7 +14414,7 @@
       <c r="K285" s="0" t="n">
         <v>0.0128</v>
       </c>
-      <c r="L285" s="4" t="s">
+      <c r="L285" s="6" t="s">
         <v>206</v>
       </c>
       <c r="M285" s="0" t="n">
@@ -13423,7 +14441,7 @@
         <v>18</v>
       </c>
       <c r="F286" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G286" s="0" t="n">
         <v>509</v>
@@ -13440,7 +14458,7 @@
       <c r="K286" s="0" t="n">
         <v>0.0295</v>
       </c>
-      <c r="L286" s="4" t="s">
+      <c r="L286" s="6" t="s">
         <v>207</v>
       </c>
       <c r="M286" s="0" t="n">
@@ -13467,7 +14485,7 @@
         <v>18</v>
       </c>
       <c r="F287" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G287" s="0" t="n">
         <v>132</v>
@@ -13484,7 +14502,7 @@
       <c r="K287" s="0" t="n">
         <v>0.0077</v>
       </c>
-      <c r="L287" s="4" t="s">
+      <c r="L287" s="6" t="s">
         <v>208</v>
       </c>
       <c r="M287" s="0" t="n">
@@ -13494,44 +14512,44 @@
         <v>17.401</v>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B288" s="5" t="s">
+      <c r="B288" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C288" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="D288" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F288" s="0" t="s">
+      <c r="D288" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F288" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G288" s="0" t="n">
+      <c r="G288" s="3" t="n">
         <v>387</v>
       </c>
-      <c r="H288" s="0" t="n">
+      <c r="H288" s="3" t="n">
         <v>1199.29</v>
       </c>
-      <c r="I288" s="0" t="n">
+      <c r="I288" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="J288" s="0" t="n">
+      <c r="J288" s="3" t="n">
         <v>11736</v>
       </c>
-      <c r="K288" s="0" t="n">
+      <c r="K288" s="3" t="n">
         <v>0.0383</v>
       </c>
       <c r="L288" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M288" s="0" t="n">
+      <c r="M288" s="3" t="n">
         <v>0.43</v>
       </c>
-      <c r="N288" s="0" t="n">
+      <c r="N288" s="3" t="n">
         <v>4.348</v>
       </c>
     </row>
@@ -13569,7 +14587,7 @@
       <c r="K289" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L289" s="4" t="s">
+      <c r="L289" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M289" s="0" t="s">
@@ -13613,7 +14631,7 @@
       <c r="K290" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L290" s="4" t="s">
+      <c r="L290" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M290" s="0" t="s">
@@ -13657,7 +14675,7 @@
       <c r="K291" s="0" t="n">
         <v>0.0192</v>
       </c>
-      <c r="L291" s="4" t="s">
+      <c r="L291" s="6" t="s">
         <v>209</v>
       </c>
       <c r="M291" s="0" t="n">
@@ -13701,7 +14719,7 @@
       <c r="K292" s="0" t="n">
         <v>0.0001</v>
       </c>
-      <c r="L292" s="4" t="s">
+      <c r="L292" s="6" t="s">
         <v>210</v>
       </c>
       <c r="M292" s="0" t="n">
@@ -13745,7 +14763,7 @@
       <c r="K293" s="0" t="n">
         <v>0.0001</v>
       </c>
-      <c r="L293" s="4" t="s">
+      <c r="L293" s="6" t="s">
         <v>210</v>
       </c>
       <c r="M293" s="0" t="n">
@@ -13789,7 +14807,7 @@
       <c r="K294" s="0" t="n">
         <v>0.0054</v>
       </c>
-      <c r="L294" s="4" t="s">
+      <c r="L294" s="6" t="s">
         <v>211</v>
       </c>
       <c r="M294" s="0" t="n">
@@ -13816,7 +14834,7 @@
         <v>18</v>
       </c>
       <c r="F295" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G295" s="0" t="n">
         <v>16</v>
@@ -13833,7 +14851,7 @@
       <c r="K295" s="0" t="n">
         <v>0.0016</v>
       </c>
-      <c r="L295" s="4" t="s">
+      <c r="L295" s="6" t="s">
         <v>212</v>
       </c>
       <c r="M295" s="0" t="n">
@@ -13860,7 +14878,7 @@
         <v>18</v>
       </c>
       <c r="F296" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G296" s="0" t="n">
         <v>38</v>
@@ -13877,7 +14895,7 @@
       <c r="K296" s="0" t="n">
         <v>0.0038</v>
       </c>
-      <c r="L296" s="4" t="s">
+      <c r="L296" s="6" t="s">
         <v>63</v>
       </c>
       <c r="M296" s="0" t="n">
@@ -13904,7 +14922,7 @@
         <v>18</v>
       </c>
       <c r="F297" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G297" s="0" t="n">
         <v>63</v>
@@ -13921,7 +14939,7 @@
       <c r="K297" s="0" t="n">
         <v>0.0062</v>
       </c>
-      <c r="L297" s="4" t="s">
+      <c r="L297" s="6" t="s">
         <v>213</v>
       </c>
       <c r="M297" s="0" t="n">
@@ -13948,7 +14966,7 @@
         <v>18</v>
       </c>
       <c r="F298" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G298" s="0" t="n">
         <v>19</v>
@@ -13965,7 +14983,7 @@
       <c r="K298" s="0" t="n">
         <v>0.0019</v>
       </c>
-      <c r="L298" s="4" t="s">
+      <c r="L298" s="6" t="s">
         <v>214</v>
       </c>
       <c r="M298" s="0" t="n">
@@ -13975,44 +14993,44 @@
         <v>1.788</v>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B299" s="5" t="s">
+      <c r="B299" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C299" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="D299" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F299" s="0" t="s">
+      <c r="D299" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F299" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G299" s="0" t="n">
+      <c r="G299" s="3" t="n">
         <v>2075</v>
       </c>
-      <c r="H299" s="0" t="n">
+      <c r="H299" s="3" t="n">
         <v>1617.86</v>
       </c>
-      <c r="I299" s="0" t="n">
+      <c r="I299" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="J299" s="0" t="n">
+      <c r="J299" s="3" t="n">
         <v>47056</v>
       </c>
-      <c r="K299" s="0" t="n">
+      <c r="K299" s="3" t="n">
         <v>0.2016</v>
       </c>
       <c r="L299" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M299" s="0" t="n">
+      <c r="M299" s="3" t="n">
         <v>1.46</v>
       </c>
-      <c r="N299" s="0" t="n">
+      <c r="N299" s="3" t="n">
         <v>5.596</v>
       </c>
     </row>
@@ -14050,7 +15068,7 @@
       <c r="K300" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L300" s="4" t="s">
+      <c r="L300" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M300" s="0" t="s">
@@ -14094,7 +15112,7 @@
       <c r="K301" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L301" s="4" t="s">
+      <c r="L301" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M301" s="0" t="s">
@@ -14138,7 +15156,7 @@
       <c r="K302" s="0" t="n">
         <v>0.0943</v>
       </c>
-      <c r="L302" s="4" t="s">
+      <c r="L302" s="6" t="s">
         <v>215</v>
       </c>
       <c r="M302" s="0" t="n">
@@ -14182,7 +15200,7 @@
       <c r="K303" s="0" t="n">
         <v>0.0003</v>
       </c>
-      <c r="L303" s="4" t="s">
+      <c r="L303" s="6" t="s">
         <v>195</v>
       </c>
       <c r="M303" s="0" t="n">
@@ -14226,7 +15244,7 @@
       <c r="K304" s="0" t="n">
         <v>0.0001</v>
       </c>
-      <c r="L304" s="4" t="s">
+      <c r="L304" s="6" t="s">
         <v>173</v>
       </c>
       <c r="M304" s="0" t="n">
@@ -14270,7 +15288,7 @@
       <c r="K305" s="0" t="n">
         <v>0.0132</v>
       </c>
-      <c r="L305" s="4" t="s">
+      <c r="L305" s="6" t="s">
         <v>216</v>
       </c>
       <c r="M305" s="0" t="n">
@@ -14297,7 +15315,7 @@
         <v>18</v>
       </c>
       <c r="F306" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G306" s="0" t="n">
         <v>76</v>
@@ -14314,7 +15332,7 @@
       <c r="K306" s="0" t="n">
         <v>0.0074</v>
       </c>
-      <c r="L306" s="4" t="s">
+      <c r="L306" s="6" t="s">
         <v>217</v>
       </c>
       <c r="M306" s="0" t="n">
@@ -14341,7 +15359,7 @@
         <v>18</v>
       </c>
       <c r="F307" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G307" s="0" t="n">
         <v>305</v>
@@ -14358,7 +15376,7 @@
       <c r="K307" s="0" t="n">
         <v>0.0296</v>
       </c>
-      <c r="L307" s="4" t="s">
+      <c r="L307" s="6" t="s">
         <v>218</v>
       </c>
       <c r="M307" s="0" t="n">
@@ -14385,7 +15403,7 @@
         <v>18</v>
       </c>
       <c r="F308" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G308" s="0" t="n">
         <v>441</v>
@@ -14402,7 +15420,7 @@
       <c r="K308" s="0" t="n">
         <v>0.0428</v>
       </c>
-      <c r="L308" s="4" t="s">
+      <c r="L308" s="6" t="s">
         <v>219</v>
       </c>
       <c r="M308" s="0" t="n">
@@ -14429,7 +15447,7 @@
         <v>18</v>
       </c>
       <c r="F309" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G309" s="0" t="n">
         <v>142</v>
@@ -14446,7 +15464,7 @@
       <c r="K309" s="0" t="n">
         <v>0.0138</v>
       </c>
-      <c r="L309" s="4" t="s">
+      <c r="L309" s="6" t="s">
         <v>220</v>
       </c>
       <c r="M309" s="0" t="n">
@@ -14456,44 +15474,44 @@
         <v>7.932</v>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B310" s="5" t="s">
+      <c r="B310" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C310" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="D310" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F310" s="0" t="s">
+      <c r="D310" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F310" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G310" s="0" t="n">
+      <c r="G310" s="3" t="n">
         <v>2147</v>
       </c>
-      <c r="H310" s="0" t="n">
+      <c r="H310" s="3" t="n">
         <v>1542.18</v>
       </c>
-      <c r="I310" s="0" t="n">
+      <c r="I310" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="J310" s="0" t="n">
+      <c r="J310" s="3" t="n">
         <v>17096</v>
       </c>
-      <c r="K310" s="0" t="n">
+      <c r="K310" s="3" t="n">
         <v>0.16</v>
       </c>
       <c r="L310" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M310" s="0" t="n">
+      <c r="M310" s="3" t="n">
         <v>1.75</v>
       </c>
-      <c r="N310" s="0" t="n">
+      <c r="N310" s="3" t="n">
         <v>6.571</v>
       </c>
     </row>
@@ -14531,7 +15549,7 @@
       <c r="K311" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L311" s="4" t="s">
+      <c r="L311" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M311" s="0" t="s">
@@ -14575,7 +15593,7 @@
       <c r="K312" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L312" s="4" t="s">
+      <c r="L312" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M312" s="0" t="s">
@@ -14619,7 +15637,7 @@
       <c r="K313" s="0" t="n">
         <v>0.0785</v>
       </c>
-      <c r="L313" s="4" t="s">
+      <c r="L313" s="6" t="s">
         <v>221</v>
       </c>
       <c r="M313" s="0" t="n">
@@ -14663,7 +15681,7 @@
       <c r="K314" s="0" t="n">
         <v>0.0001</v>
       </c>
-      <c r="L314" s="4" t="s">
+      <c r="L314" s="6" t="s">
         <v>173</v>
       </c>
       <c r="M314" s="0" t="n">
@@ -14707,7 +15725,7 @@
       <c r="K315" s="0" t="n">
         <v>0.0004</v>
       </c>
-      <c r="L315" s="4" t="s">
+      <c r="L315" s="6" t="s">
         <v>222</v>
       </c>
       <c r="M315" s="0" t="n">
@@ -14751,7 +15769,7 @@
       <c r="K316" s="0" t="n">
         <v>0.0101</v>
       </c>
-      <c r="L316" s="4" t="s">
+      <c r="L316" s="6" t="s">
         <v>223</v>
       </c>
       <c r="M316" s="0" t="n">
@@ -14778,7 +15796,7 @@
         <v>18</v>
       </c>
       <c r="F317" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G317" s="0" t="n">
         <v>61</v>
@@ -14795,7 +15813,7 @@
       <c r="K317" s="0" t="n">
         <v>0.0045</v>
       </c>
-      <c r="L317" s="4" t="s">
+      <c r="L317" s="6" t="s">
         <v>224</v>
       </c>
       <c r="M317" s="0" t="n">
@@ -14822,7 +15840,7 @@
         <v>18</v>
       </c>
       <c r="F318" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G318" s="0" t="n">
         <v>275</v>
@@ -14839,7 +15857,7 @@
       <c r="K318" s="0" t="n">
         <v>0.0205</v>
       </c>
-      <c r="L318" s="4" t="s">
+      <c r="L318" s="6" t="s">
         <v>225</v>
       </c>
       <c r="M318" s="0" t="n">
@@ -14866,7 +15884,7 @@
         <v>18</v>
       </c>
       <c r="F319" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G319" s="0" t="n">
         <v>481</v>
@@ -14883,7 +15901,7 @@
       <c r="K319" s="0" t="n">
         <v>0.0359</v>
       </c>
-      <c r="L319" s="4" t="s">
+      <c r="L319" s="6" t="s">
         <v>207</v>
       </c>
       <c r="M319" s="0" t="n">
@@ -14910,7 +15928,7 @@
         <v>18</v>
       </c>
       <c r="F320" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G320" s="0" t="n">
         <v>134</v>
@@ -14927,7 +15945,7 @@
       <c r="K320" s="0" t="n">
         <v>0.01</v>
       </c>
-      <c r="L320" s="4" t="s">
+      <c r="L320" s="6" t="s">
         <v>226</v>
       </c>
       <c r="M320" s="0" t="n">
@@ -14937,44 +15955,44 @@
         <v>6.571</v>
       </c>
     </row>
-    <row r="321" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="321" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="B321" s="5" t="s">
+      <c r="B321" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C321" s="3" t="n">
         <v>9</v>
       </c>
-      <c r="D321" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F321" s="0" t="s">
+      <c r="D321" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F321" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G321" s="0" t="n">
+      <c r="G321" s="3" t="n">
         <v>2068</v>
       </c>
-      <c r="H321" s="0" t="n">
+      <c r="H321" s="3" t="n">
         <v>1614.04</v>
       </c>
-      <c r="I321" s="0" t="n">
+      <c r="I321" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="J321" s="0" t="n">
+      <c r="J321" s="3" t="n">
         <v>11736</v>
       </c>
-      <c r="K321" s="0" t="n">
+      <c r="K321" s="3" t="n">
         <v>0.1776</v>
       </c>
       <c r="L321" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M321" s="0" t="n">
+      <c r="M321" s="3" t="n">
         <v>0.63</v>
       </c>
-      <c r="N321" s="0" t="n">
+      <c r="N321" s="3" t="n">
         <v>8.665</v>
       </c>
     </row>
@@ -15012,7 +16030,7 @@
       <c r="K322" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L322" s="4" t="s">
+      <c r="L322" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M322" s="0" t="s">
@@ -15056,7 +16074,7 @@
       <c r="K323" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="L323" s="4" t="s">
+      <c r="L323" s="6" t="s">
         <v>21</v>
       </c>
       <c r="M323" s="0" t="s">
@@ -15100,7 +16118,7 @@
       <c r="K324" s="0" t="n">
         <v>0.0875</v>
       </c>
-      <c r="L324" s="4" t="s">
+      <c r="L324" s="6" t="s">
         <v>227</v>
       </c>
       <c r="M324" s="0" t="n">
@@ -15144,7 +16162,7 @@
       <c r="K325" s="0" t="n">
         <v>0.0005</v>
       </c>
-      <c r="L325" s="4" t="s">
+      <c r="L325" s="6" t="s">
         <v>228</v>
       </c>
       <c r="M325" s="0" t="n">
@@ -15188,7 +16206,7 @@
       <c r="K326" s="0" t="n">
         <v>0.0004</v>
       </c>
-      <c r="L326" s="4" t="s">
+      <c r="L326" s="6" t="s">
         <v>166</v>
       </c>
       <c r="M326" s="0" t="n">
@@ -15232,7 +16250,7 @@
       <c r="K327" s="0" t="n">
         <v>0.0167</v>
       </c>
-      <c r="L327" s="4" t="s">
+      <c r="L327" s="6" t="s">
         <v>229</v>
       </c>
       <c r="M327" s="0" t="n">
@@ -15259,7 +16277,7 @@
         <v>18</v>
       </c>
       <c r="F328" s="0" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="G328" s="0" t="n">
         <v>62</v>
@@ -15276,7 +16294,7 @@
       <c r="K328" s="0" t="n">
         <v>0.0053</v>
       </c>
-      <c r="L328" s="4" t="s">
+      <c r="L328" s="6" t="s">
         <v>81</v>
       </c>
       <c r="M328" s="0" t="n">
@@ -15303,7 +16321,7 @@
         <v>18</v>
       </c>
       <c r="F329" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G329" s="0" t="n">
         <v>195</v>
@@ -15320,7 +16338,7 @@
       <c r="K329" s="0" t="n">
         <v>0.0167</v>
       </c>
-      <c r="L329" s="4" t="s">
+      <c r="L329" s="6" t="s">
         <v>229</v>
       </c>
       <c r="M329" s="0" t="n">
@@ -15347,7 +16365,7 @@
         <v>18</v>
       </c>
       <c r="F330" s="0" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G330" s="0" t="n">
         <v>399</v>
@@ -15364,7 +16382,7 @@
       <c r="K330" s="0" t="n">
         <v>0.0343</v>
       </c>
-      <c r="L330" s="4" t="s">
+      <c r="L330" s="6" t="s">
         <v>230</v>
       </c>
       <c r="M330" s="0" t="n">
@@ -15391,7 +16409,7 @@
         <v>18</v>
       </c>
       <c r="F331" s="0" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G331" s="0" t="n">
         <v>187</v>
@@ -15408,7 +16426,7 @@
       <c r="K331" s="0" t="n">
         <v>0.0161</v>
       </c>
-      <c r="L331" s="4" t="s">
+      <c r="L331" s="6" t="s">
         <v>231</v>
       </c>
       <c r="M331" s="0" t="n">
@@ -15419,6 +16437,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:N331"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -15426,5 +16445,1506 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:U31"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M38" activeCellId="0" sqref="M38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1229</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>2227.26</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <v>65376</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <v>0.2023</v>
+      </c>
+      <c r="L2" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="N2" s="0" t="n">
+        <v>3.701</v>
+      </c>
+      <c r="P2" s="0" t="n">
+        <v>1229</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>2227.26</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>3035</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>1036.04</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>2111</v>
+      </c>
+      <c r="U2" s="0" t="n">
+        <v>1648.15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="0" t="n">
+        <v>649</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>1530.7</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <v>33636</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <v>0.1505</v>
+      </c>
+      <c r="L3" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="N3" s="0" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="P3" s="0" t="n">
+        <v>649</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>1530.7</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>2944</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>1042.28</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>2034</v>
+      </c>
+      <c r="U3" s="0" t="n">
+        <v>1652.48</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>1012</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>2638.03</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <v>65376</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <v>0.2736</v>
+      </c>
+      <c r="L4" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="N4" s="0" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="P4" s="0" t="n">
+        <v>1012</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>2638.03</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>2851</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>1072.37</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>2004</v>
+      </c>
+      <c r="U4" s="0" t="n">
+        <v>1663.72</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>1032</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>2576.74</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>59696</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0.2732</v>
+      </c>
+      <c r="L5" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="N5" s="0" t="n">
+        <v>1.731</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>1032</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>2576.74</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>2776</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>1098.26</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="U5" s="0" t="n">
+        <v>1640.8</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>1028</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>2587.93</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>45040</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>0.279</v>
+      </c>
+      <c r="L6" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="N6" s="0" t="n">
+        <v>2.826</v>
+      </c>
+      <c r="P6" s="0" t="n">
+        <v>1028</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>2587.93</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>2878</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>1064.2</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>2158</v>
+      </c>
+      <c r="U6" s="0" t="n">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="0" t="n">
+        <v>934</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>2831.99</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <v>63956</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <v>0.2358</v>
+      </c>
+      <c r="L7" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="N7" s="0" t="n">
+        <v>1.501</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>934</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>2831.99</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>2835</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>1076.91</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>2272</v>
+      </c>
+      <c r="U7" s="0" t="n">
+        <v>1478.69</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="0" t="n">
+        <v>966</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>2742.85</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <v>63956</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <v>0.1565</v>
+      </c>
+      <c r="L8" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="N8" s="0" t="n">
+        <v>3.692</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>966</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>2742.85</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>2756</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>1105.34</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>387</v>
+      </c>
+      <c r="U8" s="0" t="n">
+        <v>1199.29</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="0" t="n">
+        <v>1032</v>
+      </c>
+      <c r="H9" s="0" t="n">
+        <v>2587.52</v>
+      </c>
+      <c r="I9" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="J9" s="0" t="n">
+        <v>45496</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <v>0.2316</v>
+      </c>
+      <c r="L9" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="N9" s="0" t="n">
+        <v>1.795</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <v>1032</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>2587.52</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>2829</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>1080.71</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>2075</v>
+      </c>
+      <c r="U9" s="0" t="n">
+        <v>1617.86</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="0" t="n">
+        <v>1035</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>2568.08</v>
+      </c>
+      <c r="I10" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="J10" s="0" t="n">
+        <v>63956</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <v>0.2062</v>
+      </c>
+      <c r="L10" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="N10" s="0" t="n">
+        <v>1.443</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <v>1035</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>2568.08</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>2854</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>1071.43</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>2147</v>
+      </c>
+      <c r="U10" s="0" t="n">
+        <v>1542.18</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="0" t="n">
+        <v>1042</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>2546.01</v>
+      </c>
+      <c r="I11" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="J11" s="0" t="n">
+        <v>63956</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <v>0.2577</v>
+      </c>
+      <c r="L11" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="N11" s="0" t="n">
+        <v>1.202</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <v>1042</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>2546.01</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>2829</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>1079.19</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>2068</v>
+      </c>
+      <c r="U11" s="0" t="n">
+        <v>1614.04</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="0" t="n">
+        <v>3035</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>1036.04</v>
+      </c>
+      <c r="I12" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="J12" s="0" t="n">
+        <v>1514</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="L12" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="N12" s="0" t="n">
+        <v>2.011</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="0" t="n">
+        <v>2944</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>1042.28</v>
+      </c>
+      <c r="I13" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="J13" s="0" t="n">
+        <v>1514</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <v>0.7556</v>
+      </c>
+      <c r="L13" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="N13" s="0" t="n">
+        <v>2.598</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="0" t="n">
+        <v>2851</v>
+      </c>
+      <c r="H14" s="0" t="n">
+        <v>1072.37</v>
+      </c>
+      <c r="I14" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="J14" s="0" t="n">
+        <v>1514</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <v>0.9674</v>
+      </c>
+      <c r="L14" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <v>7.23</v>
+      </c>
+      <c r="N14" s="0" t="n">
+        <v>1.455</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="0" t="n">
+        <v>2776</v>
+      </c>
+      <c r="H15" s="0" t="n">
+        <v>1098.26</v>
+      </c>
+      <c r="I15" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="J15" s="0" t="n">
+        <v>1514</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <v>0.9542</v>
+      </c>
+      <c r="L15" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="N15" s="0" t="n">
+        <v>1.421</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="0" t="n">
+        <v>2878</v>
+      </c>
+      <c r="H16" s="0" t="n">
+        <v>1064.2</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>1514</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>1.0088</v>
+      </c>
+      <c r="L16" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="N16" s="0" t="n">
+        <v>1.348</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="0" t="n">
+        <v>2835</v>
+      </c>
+      <c r="H17" s="0" t="n">
+        <v>1076.91</v>
+      </c>
+      <c r="I17" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="J17" s="0" t="n">
+        <v>1514</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <v>0.9725</v>
+      </c>
+      <c r="L17" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <v>7.78</v>
+      </c>
+      <c r="N17" s="0" t="n">
+        <v>1.562</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="0" t="n">
+        <v>2756</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>1105.34</v>
+      </c>
+      <c r="I18" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="J18" s="0" t="n">
+        <v>1514</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <v>0.9054</v>
+      </c>
+      <c r="L18" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <v>7.63</v>
+      </c>
+      <c r="N18" s="0" t="n">
+        <v>2.533</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="0" t="n">
+        <v>2829</v>
+      </c>
+      <c r="H19" s="0" t="n">
+        <v>1080.71</v>
+      </c>
+      <c r="I19" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="J19" s="0" t="n">
+        <v>1514</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0.8318</v>
+      </c>
+      <c r="L19" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="N19" s="0" t="n">
+        <v>2.155</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="0" t="n">
+        <v>2854</v>
+      </c>
+      <c r="H20" s="0" t="n">
+        <v>1071.43</v>
+      </c>
+      <c r="I20" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="J20" s="0" t="n">
+        <v>1514</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>0.8814</v>
+      </c>
+      <c r="L20" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>1.766</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>2829</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>1079.19</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>1514</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>0.8867</v>
+      </c>
+      <c r="L21" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>2111</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>1648.15</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="J22" s="0" t="n">
+        <v>36556</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <v>0.1468</v>
+      </c>
+      <c r="L22" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>9.195</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>2034</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>1652.48</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>17576</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>0.1499</v>
+      </c>
+      <c r="L23" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>6.286</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>2004</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>1663.72</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>21956</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>0.2255</v>
+      </c>
+      <c r="L24" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>6.422</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>2014</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>1640.8</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>31841</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>0.2017</v>
+      </c>
+      <c r="L25" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>6.185</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>2158</v>
+      </c>
+      <c r="H26" s="0" t="n">
+        <v>1549</v>
+      </c>
+      <c r="I26" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="J26" s="0" t="n">
+        <v>17576</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <v>0.1695</v>
+      </c>
+      <c r="L26" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="N26" s="0" t="n">
+        <v>6.317</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>2272</v>
+      </c>
+      <c r="H27" s="0" t="n">
+        <v>1478.69</v>
+      </c>
+      <c r="I27" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="J27" s="0" t="n">
+        <v>24876</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <v>0.1318</v>
+      </c>
+      <c r="L27" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="N27" s="0" t="n">
+        <v>16.747</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>387</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>1199.29</v>
+      </c>
+      <c r="I28" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="J28" s="0" t="n">
+        <v>11736</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <v>0.0383</v>
+      </c>
+      <c r="L28" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="N28" s="0" t="n">
+        <v>4.348</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>2075</v>
+      </c>
+      <c r="H29" s="0" t="n">
+        <v>1617.86</v>
+      </c>
+      <c r="I29" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="J29" s="0" t="n">
+        <v>47056</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <v>0.2016</v>
+      </c>
+      <c r="L29" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="N29" s="0" t="n">
+        <v>5.596</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="0" t="n">
+        <v>2147</v>
+      </c>
+      <c r="H30" s="0" t="n">
+        <v>1542.18</v>
+      </c>
+      <c r="I30" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="J30" s="0" t="n">
+        <v>17096</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L30" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="N30" s="0" t="n">
+        <v>6.571</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="0" t="n">
+        <v>2068</v>
+      </c>
+      <c r="H31" s="0" t="n">
+        <v>1614.04</v>
+      </c>
+      <c r="I31" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="J31" s="0" t="n">
+        <v>11736</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <v>0.1776</v>
+      </c>
+      <c r="L31" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="N31" s="0" t="n">
+        <v>8.665</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>